--- a/daveydark/src/Products Db.xlsx
+++ b/daveydark/src/Products Db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APEX -hackathon\.venv\APEX-Hackathon\daveydark\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5421C20-DA33-4E34-A3CF-E6DFDFCAB83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AD193B-9F0A-4828-9FE2-0F9178F6168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="873">
   <si>
     <t>id</t>
   </si>
@@ -2640,13 +2651,16 @@
   </si>
   <si>
     <t>review</t>
+  </si>
+  <si>
+    <t>https://picsum.photos/600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2673,6 +2687,20 @@
       <color rgb="FF212121"/>
       <name val="&quot;TT Commons&quot;"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2696,10 +2724,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2708,8 +2737,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -3010,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="E584" workbookViewId="0">
+      <selection activeCell="G598" sqref="G598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3020,7 +3053,7 @@
     <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.7265625" bestFit="1" customWidth="1"/>
@@ -3077,6 +3110,9 @@
       <c r="E2" s="3">
         <v>599</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G2">
         <v>39</v>
       </c>
@@ -3110,6 +3146,9 @@
       <c r="E3" s="3">
         <v>151.99</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G3">
         <v>77</v>
       </c>
@@ -3143,6 +3182,9 @@
       <c r="E4" s="3">
         <v>20.99</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G4">
         <v>22</v>
       </c>
@@ -3176,6 +3218,9 @@
       <c r="E5" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G5">
         <v>41</v>
       </c>
@@ -3209,6 +3254,9 @@
       <c r="E6" s="3">
         <v>254.99</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G6">
         <v>99</v>
       </c>
@@ -3242,6 +3290,9 @@
       <c r="E7" s="3">
         <v>132.99</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G7">
         <v>42</v>
       </c>
@@ -3275,6 +3326,9 @@
       <c r="E8" s="3">
         <v>154.99</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G8">
         <v>56</v>
       </c>
@@ -3308,6 +3362,9 @@
       <c r="E9" s="3">
         <v>244.01</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G9">
         <v>2</v>
       </c>
@@ -3341,6 +3398,9 @@
       <c r="E10" s="3">
         <v>249.99</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G10">
         <v>6</v>
       </c>
@@ -3374,6 +3434,9 @@
       <c r="E11" s="3">
         <v>74.989999999999995</v>
       </c>
+      <c r="F11" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G11">
         <v>99</v>
       </c>
@@ -3407,6 +3470,9 @@
       <c r="E12" s="3">
         <v>136.99</v>
       </c>
+      <c r="F12" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G12">
         <v>17</v>
       </c>
@@ -3440,6 +3506,9 @@
       <c r="E13" s="3">
         <v>34.99</v>
       </c>
+      <c r="F13" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G13">
         <v>26</v>
       </c>
@@ -3473,6 +3542,9 @@
       <c r="E14" s="3">
         <v>158.94999999999999</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G14">
         <v>47</v>
       </c>
@@ -3506,6 +3578,9 @@
       <c r="E15" s="3">
         <v>151.99</v>
       </c>
+      <c r="F15" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G15">
         <v>86</v>
       </c>
@@ -3539,6 +3614,9 @@
       <c r="E16" s="3">
         <v>699.99</v>
       </c>
+      <c r="F16" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G16">
         <v>58</v>
       </c>
@@ -3572,6 +3650,9 @@
       <c r="E17" s="3">
         <v>20.99</v>
       </c>
+      <c r="F17" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G17">
         <v>88</v>
       </c>
@@ -3605,6 +3686,9 @@
       <c r="E18" s="3">
         <v>499</v>
       </c>
+      <c r="F18" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G18">
         <v>71</v>
       </c>
@@ -3638,6 +3722,9 @@
       <c r="E19" s="3">
         <v>139.99</v>
       </c>
+      <c r="F19" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G19">
         <v>49</v>
       </c>
@@ -3671,6 +3758,9 @@
       <c r="E20" s="3">
         <v>289.99</v>
       </c>
+      <c r="F20" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G20">
         <v>90</v>
       </c>
@@ -3704,6 +3794,9 @@
       <c r="E21" s="3">
         <v>31.99</v>
       </c>
+      <c r="F21" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G21">
         <v>5</v>
       </c>
@@ -3737,6 +3830,9 @@
       <c r="E22" s="3">
         <v>209.99</v>
       </c>
+      <c r="F22" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G22">
         <v>73</v>
       </c>
@@ -3770,6 +3866,9 @@
       <c r="E23" s="3">
         <v>689.95</v>
       </c>
+      <c r="F23" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G23">
         <v>92</v>
       </c>
@@ -3803,6 +3902,9 @@
       <c r="E24" s="3">
         <v>290.99</v>
       </c>
+      <c r="F24" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G24">
         <v>54</v>
       </c>
@@ -3836,6 +3938,9 @@
       <c r="E25" s="3">
         <v>689.95</v>
       </c>
+      <c r="F25" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G25">
         <v>37</v>
       </c>
@@ -3869,6 +3974,9 @@
       <c r="E26" s="3">
         <v>69.989999999999995</v>
       </c>
+      <c r="F26" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G26">
         <v>96</v>
       </c>
@@ -3902,6 +4010,9 @@
       <c r="E27" s="3">
         <v>69</v>
       </c>
+      <c r="F27" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G27">
         <v>83</v>
       </c>
@@ -3935,6 +4046,9 @@
       <c r="E28" s="3">
         <v>499</v>
       </c>
+      <c r="F28" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G28">
         <v>43</v>
       </c>
@@ -3968,6 +4082,9 @@
       <c r="E29" s="3">
         <v>147.99</v>
       </c>
+      <c r="F29" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G29">
         <v>66</v>
       </c>
@@ -4001,6 +4118,9 @@
       <c r="E30" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F30" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G30">
         <v>59</v>
       </c>
@@ -4034,6 +4154,9 @@
       <c r="E31" s="3">
         <v>225.99</v>
       </c>
+      <c r="F31" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G31">
         <v>69</v>
       </c>
@@ -4067,6 +4190,9 @@
       <c r="E32" s="3">
         <v>104.99</v>
       </c>
+      <c r="F32" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G32">
         <v>42</v>
       </c>
@@ -4100,6 +4226,9 @@
       <c r="E33" s="3">
         <v>224.99</v>
       </c>
+      <c r="F33" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G33">
         <v>68</v>
       </c>
@@ -4133,6 +4262,9 @@
       <c r="E34" s="3">
         <v>299.99</v>
       </c>
+      <c r="F34" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G34">
         <v>8</v>
       </c>
@@ -4166,6 +4298,9 @@
       <c r="E35" s="3">
         <v>23.99</v>
       </c>
+      <c r="F35" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G35">
         <v>78</v>
       </c>
@@ -4199,6 +4334,9 @@
       <c r="E36" s="3">
         <v>65.989999999999995</v>
       </c>
+      <c r="F36" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G36">
         <v>86</v>
       </c>
@@ -4232,6 +4370,9 @@
       <c r="E37" s="3">
         <v>34.99</v>
       </c>
+      <c r="F37" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G37">
         <v>43</v>
       </c>
@@ -4264,6 +4405,9 @@
       </c>
       <c r="E38" s="3">
         <v>69.989999999999995</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>872</v>
       </c>
       <c r="G38">
         <v>45</v>
@@ -4299,6 +4443,9 @@
       <c r="E39" s="3">
         <v>23.99</v>
       </c>
+      <c r="F39" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G39">
         <v>28</v>
       </c>
@@ -4332,6 +4479,9 @@
       <c r="E40" s="3">
         <v>151.99</v>
       </c>
+      <c r="F40" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G40">
         <v>43</v>
       </c>
@@ -4365,6 +4515,9 @@
       <c r="E41" s="3">
         <v>69.989999999999995</v>
       </c>
+      <c r="F41" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G41">
         <v>56</v>
       </c>
@@ -4398,6 +4551,9 @@
       <c r="E42" s="3">
         <v>224.99</v>
       </c>
+      <c r="F42" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G42">
         <v>61</v>
       </c>
@@ -4431,6 +4587,9 @@
       <c r="E43" s="3">
         <v>65.989999999999995</v>
       </c>
+      <c r="F43" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G43">
         <v>22</v>
       </c>
@@ -4464,6 +4623,9 @@
       <c r="E44" s="3">
         <v>66.989999999999995</v>
       </c>
+      <c r="F44" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G44">
         <v>31</v>
       </c>
@@ -4497,6 +4659,9 @@
       <c r="E45" s="3">
         <v>239.99</v>
       </c>
+      <c r="F45" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -4530,6 +4695,9 @@
       <c r="E46" s="3">
         <v>23.99</v>
       </c>
+      <c r="F46" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G46">
         <v>64</v>
       </c>
@@ -4563,6 +4731,9 @@
       <c r="E47" s="3">
         <v>69.989999999999995</v>
       </c>
+      <c r="F47" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G47">
         <v>83</v>
       </c>
@@ -4596,6 +4767,9 @@
       <c r="E48" s="3">
         <v>699.99</v>
       </c>
+      <c r="F48" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G48">
         <v>87</v>
       </c>
@@ -4629,6 +4803,9 @@
       <c r="E49" s="3">
         <v>149.94999999999999</v>
       </c>
+      <c r="F49" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G49">
         <v>15</v>
       </c>
@@ -4662,6 +4839,9 @@
       <c r="E50" s="3">
         <v>162.99</v>
       </c>
+      <c r="F50" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G50">
         <v>82</v>
       </c>
@@ -4695,6 +4875,9 @@
       <c r="E51" s="3">
         <v>225.99</v>
       </c>
+      <c r="F51" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G51">
         <v>24</v>
       </c>
@@ -4728,6 +4911,9 @@
       <c r="E52" s="3">
         <v>299.98</v>
       </c>
+      <c r="F52" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G52">
         <v>8</v>
       </c>
@@ -4761,6 +4947,9 @@
       <c r="E53" s="3">
         <v>136.99</v>
       </c>
+      <c r="F53" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G53">
         <v>23</v>
       </c>
@@ -4794,6 +4983,9 @@
       <c r="E54" s="3">
         <v>149.99</v>
       </c>
+      <c r="F54" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G54">
         <v>8</v>
       </c>
@@ -4827,6 +5019,9 @@
       <c r="E55" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F55" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G55">
         <v>64</v>
       </c>
@@ -4860,6 +5055,9 @@
       <c r="E56" s="3">
         <v>149.99</v>
       </c>
+      <c r="F56" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G56">
         <v>65</v>
       </c>
@@ -4893,6 +5091,9 @@
       <c r="E57" s="3">
         <v>132.99</v>
       </c>
+      <c r="F57" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G57">
         <v>34</v>
       </c>
@@ -4926,6 +5127,9 @@
       <c r="E58" s="3">
         <v>154.99</v>
       </c>
+      <c r="F58" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G58">
         <v>5</v>
       </c>
@@ -4959,6 +5163,9 @@
       <c r="E59" s="3">
         <v>249.99</v>
       </c>
+      <c r="F59" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G59">
         <v>29</v>
       </c>
@@ -4992,6 +5199,9 @@
       <c r="E60" s="3">
         <v>31.99</v>
       </c>
+      <c r="F60" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G60">
         <v>32</v>
       </c>
@@ -5025,6 +5235,9 @@
       <c r="E61" s="3">
         <v>299.98</v>
       </c>
+      <c r="F61" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G61">
         <v>9</v>
       </c>
@@ -5058,6 +5271,9 @@
       <c r="E62" s="3">
         <v>299.98</v>
       </c>
+      <c r="F62" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G62">
         <v>19</v>
       </c>
@@ -5091,6 +5307,9 @@
       <c r="E63" s="3">
         <v>599</v>
       </c>
+      <c r="F63" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G63">
         <v>55</v>
       </c>
@@ -5124,6 +5343,9 @@
       <c r="E64" s="3">
         <v>136.99</v>
       </c>
+      <c r="F64" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G64">
         <v>76</v>
       </c>
@@ -5156,6 +5378,9 @@
       </c>
       <c r="E65" s="3">
         <v>69.989999999999995</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>872</v>
       </c>
       <c r="G65">
         <v>18</v>
@@ -5191,6 +5416,9 @@
       <c r="E66" s="3">
         <v>20.99</v>
       </c>
+      <c r="F66" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G66">
         <v>10</v>
       </c>
@@ -5224,6 +5452,9 @@
       <c r="E67" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F67" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G67">
         <v>22</v>
       </c>
@@ -5257,6 +5488,9 @@
       <c r="E68" s="3">
         <v>254.99</v>
       </c>
+      <c r="F68" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G68">
         <v>81</v>
       </c>
@@ -5290,6 +5524,9 @@
       <c r="E69" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F69" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G69">
         <v>87</v>
       </c>
@@ -5323,6 +5560,9 @@
       <c r="E70" s="3">
         <v>249.99</v>
       </c>
+      <c r="F70" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G70">
         <v>90</v>
       </c>
@@ -5356,6 +5596,9 @@
       <c r="E71" s="3">
         <v>149.99</v>
       </c>
+      <c r="F71" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G71">
         <v>3</v>
       </c>
@@ -5389,6 +5632,9 @@
       <c r="E72" s="3">
         <v>158.94999999999999</v>
       </c>
+      <c r="F72" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G72">
         <v>78</v>
       </c>
@@ -5422,6 +5668,9 @@
       <c r="E73" s="3">
         <v>23.99</v>
       </c>
+      <c r="F73" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G73">
         <v>44</v>
       </c>
@@ -5455,6 +5704,9 @@
       <c r="E74" s="3">
         <v>69.989999999999995</v>
       </c>
+      <c r="F74" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G74">
         <v>25</v>
       </c>
@@ -5488,6 +5740,9 @@
       <c r="E75" s="3">
         <v>189.99</v>
       </c>
+      <c r="F75" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G75">
         <v>81</v>
       </c>
@@ -5521,6 +5776,9 @@
       <c r="E76" s="3">
         <v>66</v>
       </c>
+      <c r="F76" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G76">
         <v>66</v>
       </c>
@@ -5554,6 +5812,9 @@
       <c r="E77" s="3">
         <v>149.99</v>
       </c>
+      <c r="F77" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G77">
         <v>9</v>
       </c>
@@ -5587,6 +5848,9 @@
       <c r="E78" s="3">
         <v>139.99</v>
       </c>
+      <c r="F78" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G78">
         <v>88</v>
       </c>
@@ -5620,6 +5884,9 @@
       <c r="E79" s="3">
         <v>209.99</v>
       </c>
+      <c r="F79" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G79">
         <v>76</v>
       </c>
@@ -5653,6 +5920,9 @@
       <c r="E80" s="3">
         <v>65.989999999999995</v>
       </c>
+      <c r="F80" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G80">
         <v>70</v>
       </c>
@@ -5686,6 +5956,9 @@
       <c r="E81" s="3">
         <v>290.99</v>
       </c>
+      <c r="F81" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G81">
         <v>25</v>
       </c>
@@ -5719,6 +5992,9 @@
       <c r="E82" s="3">
         <v>34.99</v>
       </c>
+      <c r="F82" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G82">
         <v>1</v>
       </c>
@@ -5752,6 +6028,9 @@
       <c r="E83" s="3">
         <v>699.99</v>
       </c>
+      <c r="F83" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G83">
         <v>100</v>
       </c>
@@ -5785,6 +6064,9 @@
       <c r="E84" s="3">
         <v>149.99</v>
       </c>
+      <c r="F84" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G84">
         <v>31</v>
       </c>
@@ -5818,6 +6100,9 @@
       <c r="E85" s="3">
         <v>224.99</v>
       </c>
+      <c r="F85" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G85">
         <v>94</v>
       </c>
@@ -5851,6 +6136,9 @@
       <c r="E86" s="3">
         <v>147.99</v>
       </c>
+      <c r="F86" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G86">
         <v>10</v>
       </c>
@@ -5884,6 +6172,9 @@
       <c r="E87" s="3">
         <v>254.99</v>
       </c>
+      <c r="F87" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G87">
         <v>41</v>
       </c>
@@ -5917,6 +6208,9 @@
       <c r="E88" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F88" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G88">
         <v>26</v>
       </c>
@@ -5950,6 +6244,9 @@
       <c r="E89" s="3">
         <v>289.99</v>
       </c>
+      <c r="F89" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G89">
         <v>19</v>
       </c>
@@ -5983,6 +6280,9 @@
       <c r="E90" s="3">
         <v>23.99</v>
       </c>
+      <c r="F90" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G90">
         <v>71</v>
       </c>
@@ -6016,6 +6316,9 @@
       <c r="E91" s="3">
         <v>66.989999999999995</v>
       </c>
+      <c r="F91" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G91">
         <v>11</v>
       </c>
@@ -6049,6 +6352,9 @@
       <c r="E92" s="3">
         <v>194.82</v>
       </c>
+      <c r="F92" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G92">
         <v>29</v>
       </c>
@@ -6082,6 +6388,9 @@
       <c r="E93" s="3">
         <v>69.989999999999995</v>
       </c>
+      <c r="F93" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G93">
         <v>63</v>
       </c>
@@ -6115,6 +6424,9 @@
       <c r="E94" s="3">
         <v>499</v>
       </c>
+      <c r="F94" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G94">
         <v>32</v>
       </c>
@@ -6148,6 +6460,9 @@
       <c r="E95" s="3">
         <v>699</v>
       </c>
+      <c r="F95" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G95">
         <v>88</v>
       </c>
@@ -6181,6 +6496,9 @@
       <c r="E96" s="3">
         <v>139.99</v>
       </c>
+      <c r="F96" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G96">
         <v>48</v>
       </c>
@@ -6214,6 +6532,9 @@
       <c r="E97" s="3">
         <v>244.01</v>
       </c>
+      <c r="F97" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G97">
         <v>21</v>
       </c>
@@ -6247,6 +6568,9 @@
       <c r="E98" s="3">
         <v>64</v>
       </c>
+      <c r="F98" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G98">
         <v>36</v>
       </c>
@@ -6280,6 +6604,9 @@
       <c r="E99" s="3">
         <v>104.99</v>
       </c>
+      <c r="F99" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G99">
         <v>11</v>
       </c>
@@ -6313,6 +6640,9 @@
       <c r="E100" s="3">
         <v>299.99</v>
       </c>
+      <c r="F100" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G100">
         <v>97</v>
       </c>
@@ -6346,6 +6676,9 @@
       <c r="E101" s="3">
         <v>194.82</v>
       </c>
+      <c r="F101" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G101">
         <v>20</v>
       </c>
@@ -6379,6 +6712,9 @@
       <c r="E102" s="3">
         <v>69</v>
       </c>
+      <c r="F102" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G102">
         <v>10</v>
       </c>
@@ -6412,6 +6748,9 @@
       <c r="E103" s="3">
         <v>69.989999999999995</v>
       </c>
+      <c r="F103" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G103">
         <v>27</v>
       </c>
@@ -6445,6 +6784,9 @@
       <c r="E104" s="3">
         <v>279.99</v>
       </c>
+      <c r="F104" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G104">
         <v>94</v>
       </c>
@@ -6478,6 +6820,9 @@
       <c r="E105" s="3">
         <v>147.99</v>
       </c>
+      <c r="F105" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G105">
         <v>38</v>
       </c>
@@ -6511,6 +6856,9 @@
       <c r="E106" s="3">
         <v>132.99</v>
       </c>
+      <c r="F106" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G106">
         <v>24</v>
       </c>
@@ -6544,6 +6892,9 @@
       <c r="E107" s="3">
         <v>64</v>
       </c>
+      <c r="F107" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G107">
         <v>87</v>
       </c>
@@ -6577,6 +6928,9 @@
       <c r="E108" s="3">
         <v>279.99</v>
       </c>
+      <c r="F108" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G108">
         <v>69</v>
       </c>
@@ -6610,6 +6964,9 @@
       <c r="E109" s="3">
         <v>290.99</v>
       </c>
+      <c r="F109" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G109">
         <v>62</v>
       </c>
@@ -6643,6 +7000,9 @@
       <c r="E110" s="3">
         <v>689.95</v>
       </c>
+      <c r="F110" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G110">
         <v>34</v>
       </c>
@@ -6675,6 +7035,9 @@
       </c>
       <c r="E111" s="3">
         <v>69.989999999999995</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>872</v>
       </c>
       <c r="G111">
         <v>37</v>
@@ -6710,6 +7073,9 @@
       <c r="E112" s="3">
         <v>149.99</v>
       </c>
+      <c r="F112" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G112">
         <v>83</v>
       </c>
@@ -6743,6 +7109,9 @@
       <c r="E113" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F113" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G113">
         <v>59</v>
       </c>
@@ -6776,6 +7145,9 @@
       <c r="E114" s="3">
         <v>189.99</v>
       </c>
+      <c r="F114" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G114">
         <v>56</v>
       </c>
@@ -6809,6 +7181,9 @@
       <c r="E115" s="3">
         <v>66</v>
       </c>
+      <c r="F115" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G115">
         <v>96</v>
       </c>
@@ -6842,6 +7217,9 @@
       <c r="E116" s="3">
         <v>162.99</v>
       </c>
+      <c r="F116" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G116">
         <v>100</v>
       </c>
@@ -6875,6 +7253,9 @@
       <c r="E117" s="3">
         <v>31.99</v>
       </c>
+      <c r="F117" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G117">
         <v>84</v>
       </c>
@@ -6908,6 +7289,9 @@
       <c r="E118" s="3">
         <v>104.99</v>
       </c>
+      <c r="F118" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G118">
         <v>95</v>
       </c>
@@ -6941,6 +7325,9 @@
       <c r="E119" s="3">
         <v>66.989999999999995</v>
       </c>
+      <c r="F119" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G119">
         <v>69</v>
       </c>
@@ -6974,6 +7361,9 @@
       <c r="E120" s="3">
         <v>194.82</v>
       </c>
+      <c r="F120" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G120">
         <v>67</v>
       </c>
@@ -7007,6 +7397,9 @@
       <c r="E121" s="3">
         <v>74.989999999999995</v>
       </c>
+      <c r="F121" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G121">
         <v>4</v>
       </c>
@@ -7040,6 +7433,9 @@
       <c r="E122" s="3">
         <v>239.99</v>
       </c>
+      <c r="F122" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G122">
         <v>72</v>
       </c>
@@ -7073,6 +7469,9 @@
       <c r="E123" s="3">
         <v>69</v>
       </c>
+      <c r="F123" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G123">
         <v>64</v>
       </c>
@@ -7106,6 +7505,9 @@
       <c r="E124" s="3">
         <v>189.99</v>
       </c>
+      <c r="F124" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G124">
         <v>99</v>
       </c>
@@ -7139,6 +7541,9 @@
       <c r="E125" s="3">
         <v>162.99</v>
       </c>
+      <c r="F125" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G125">
         <v>49</v>
       </c>
@@ -7172,6 +7577,9 @@
       <c r="E126" s="3">
         <v>699</v>
       </c>
+      <c r="F126" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G126">
         <v>7</v>
       </c>
@@ -7205,6 +7613,9 @@
       <c r="E127" s="3">
         <v>299.98</v>
       </c>
+      <c r="F127" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G127">
         <v>68</v>
       </c>
@@ -7238,6 +7649,9 @@
       <c r="E128" s="3">
         <v>23.99</v>
       </c>
+      <c r="F128" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G128">
         <v>61</v>
       </c>
@@ -7271,6 +7685,9 @@
       <c r="E129" s="3">
         <v>599</v>
       </c>
+      <c r="F129" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G129">
         <v>78</v>
       </c>
@@ -7304,6 +7721,9 @@
       <c r="E130" s="3">
         <v>239.99</v>
       </c>
+      <c r="F130" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G130">
         <v>95</v>
       </c>
@@ -7337,6 +7757,9 @@
       <c r="E131" s="3">
         <v>279.99</v>
       </c>
+      <c r="F131" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G131">
         <v>25</v>
       </c>
@@ -7370,6 +7793,9 @@
       <c r="E132" s="3">
         <v>149.94999999999999</v>
       </c>
+      <c r="F132" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G132">
         <v>100</v>
       </c>
@@ -7403,6 +7829,9 @@
       <c r="E133" s="3">
         <v>66</v>
       </c>
+      <c r="F133" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G133">
         <v>16</v>
       </c>
@@ -7436,6 +7865,9 @@
       <c r="E134" s="3">
         <v>699</v>
       </c>
+      <c r="F134" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G134">
         <v>73</v>
       </c>
@@ -7469,6 +7901,9 @@
       <c r="E135" s="3">
         <v>289.99</v>
       </c>
+      <c r="F135" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G135">
         <v>18</v>
       </c>
@@ -7502,6 +7937,9 @@
       <c r="E136" s="3">
         <v>225.99</v>
       </c>
+      <c r="F136" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G136">
         <v>83</v>
       </c>
@@ -7535,6 +7973,9 @@
       <c r="E137" s="3">
         <v>209.99</v>
       </c>
+      <c r="F137" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G137">
         <v>41</v>
       </c>
@@ -7568,6 +8009,9 @@
       <c r="E138" s="3">
         <v>299.98</v>
       </c>
+      <c r="F138" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G138">
         <v>83</v>
       </c>
@@ -7601,6 +8045,9 @@
       <c r="E139" s="3">
         <v>299.99</v>
       </c>
+      <c r="F139" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G139">
         <v>73</v>
       </c>
@@ -7634,6 +8081,9 @@
       <c r="E140" s="3">
         <v>74.989999999999995</v>
       </c>
+      <c r="F140" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G140">
         <v>36</v>
       </c>
@@ -7667,6 +8117,9 @@
       <c r="E141" s="3">
         <v>158.94999999999999</v>
       </c>
+      <c r="F141" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G141">
         <v>54</v>
       </c>
@@ -7700,6 +8153,9 @@
       <c r="E142" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F142" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G142">
         <v>78</v>
       </c>
@@ -7733,6 +8189,9 @@
       <c r="E143" s="3">
         <v>149.94999999999999</v>
       </c>
+      <c r="F143" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G143">
         <v>49</v>
       </c>
@@ -7766,6 +8225,9 @@
       <c r="E144" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F144" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G144">
         <v>32</v>
       </c>
@@ -7799,6 +8261,9 @@
       <c r="E145" s="3">
         <v>154.99</v>
       </c>
+      <c r="F145" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G145">
         <v>61</v>
       </c>
@@ -7832,6 +8297,9 @@
       <c r="E146" s="3">
         <v>299.98</v>
       </c>
+      <c r="F146" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G146">
         <v>96</v>
       </c>
@@ -7865,6 +8333,9 @@
       <c r="E147" s="3">
         <v>244.01</v>
       </c>
+      <c r="F147" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G147">
         <v>41</v>
       </c>
@@ -7898,6 +8369,9 @@
       <c r="E148" s="3">
         <v>64</v>
       </c>
+      <c r="F148" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G148">
         <v>18</v>
       </c>
@@ -7931,6 +8405,9 @@
       <c r="E149" s="3">
         <v>479.99</v>
       </c>
+      <c r="F149" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G149">
         <v>57</v>
       </c>
@@ -7964,6 +8441,9 @@
       <c r="E150" s="3">
         <v>479.99</v>
       </c>
+      <c r="F150" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G150">
         <v>1</v>
       </c>
@@ -7997,6 +8477,9 @@
       <c r="E151" s="3">
         <v>496.36</v>
       </c>
+      <c r="F151" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G151">
         <v>79</v>
       </c>
@@ -8030,6 +8513,9 @@
       <c r="E152" s="3">
         <v>20.99</v>
       </c>
+      <c r="F152" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G152">
         <v>55</v>
       </c>
@@ -8063,6 +8549,9 @@
       <c r="E153" s="3">
         <v>299.99</v>
       </c>
+      <c r="F153" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G153">
         <v>87</v>
       </c>
@@ -8096,6 +8585,9 @@
       <c r="E154" s="3">
         <v>99.99</v>
       </c>
+      <c r="F154" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G154">
         <v>62</v>
       </c>
@@ -8129,6 +8621,9 @@
       <c r="E155" s="3">
         <v>43.99</v>
       </c>
+      <c r="F155" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G155">
         <v>19</v>
       </c>
@@ -8162,6 +8657,9 @@
       <c r="E156" s="3">
         <v>29.95</v>
       </c>
+      <c r="F156" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G156">
         <v>88</v>
       </c>
@@ -8195,6 +8693,9 @@
       <c r="E157" s="3">
         <v>49.99</v>
       </c>
+      <c r="F157" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G157">
         <v>51</v>
       </c>
@@ -8228,6 +8729,9 @@
       <c r="E158" s="3">
         <v>49.95</v>
       </c>
+      <c r="F158" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G158">
         <v>77</v>
       </c>
@@ -8261,6 +8765,9 @@
       <c r="E159" s="3">
         <v>38.99</v>
       </c>
+      <c r="F159" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G159">
         <v>93</v>
       </c>
@@ -8294,6 +8801,9 @@
       <c r="E160" s="3">
         <v>549</v>
       </c>
+      <c r="F160" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G160">
         <v>68</v>
       </c>
@@ -8327,6 +8837,9 @@
       <c r="E161" s="3">
         <v>549.99</v>
       </c>
+      <c r="F161" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G161">
         <v>3</v>
       </c>
@@ -8360,6 +8873,9 @@
       <c r="E162" s="3">
         <v>447.99</v>
       </c>
+      <c r="F162" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G162">
         <v>84</v>
       </c>
@@ -8393,6 +8909,9 @@
       <c r="E163" s="3">
         <v>447.99</v>
       </c>
+      <c r="F163" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G163">
         <v>72</v>
       </c>
@@ -8426,6 +8945,9 @@
       <c r="E164" s="3">
         <v>78.989999999999995</v>
       </c>
+      <c r="F164" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G164">
         <v>84</v>
       </c>
@@ -8459,6 +8981,9 @@
       <c r="E165" s="3">
         <v>229.99</v>
       </c>
+      <c r="F165" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G165">
         <v>30</v>
       </c>
@@ -8492,6 +9017,9 @@
       <c r="E166" s="3">
         <v>329.99</v>
       </c>
+      <c r="F166" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G166">
         <v>37</v>
       </c>
@@ -8525,6 +9053,9 @@
       <c r="E167" s="3">
         <v>43.99</v>
       </c>
+      <c r="F167" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G167">
         <v>90</v>
       </c>
@@ -8558,6 +9089,9 @@
       <c r="E168" s="3">
         <v>49.99</v>
       </c>
+      <c r="F168" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G168">
         <v>16</v>
       </c>
@@ -8591,6 +9125,9 @@
       <c r="E169" s="3">
         <v>38.99</v>
       </c>
+      <c r="F169" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G169">
         <v>57</v>
       </c>
@@ -8624,6 +9161,9 @@
       <c r="E170" s="3">
         <v>549.99</v>
       </c>
+      <c r="F170" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G170">
         <v>5</v>
       </c>
@@ -8657,6 +9197,9 @@
       <c r="E171" s="3">
         <v>44.65</v>
       </c>
+      <c r="F171" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G171">
         <v>60</v>
       </c>
@@ -8690,6 +9233,9 @@
       <c r="E172" s="3">
         <v>49.99</v>
       </c>
+      <c r="F172" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G172">
         <v>37</v>
       </c>
@@ -8723,6 +9269,9 @@
       <c r="E173" s="3">
         <v>449.99</v>
       </c>
+      <c r="F173" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G173">
         <v>38</v>
       </c>
@@ -8756,6 +9305,9 @@
       <c r="E174" s="3">
         <v>447.99</v>
       </c>
+      <c r="F174" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G174">
         <v>59</v>
       </c>
@@ -8789,6 +9341,9 @@
       <c r="E175" s="3">
         <v>79.95</v>
       </c>
+      <c r="F175" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G175">
         <v>72</v>
       </c>
@@ -8822,6 +9377,9 @@
       <c r="E176" s="3">
         <v>65.19</v>
       </c>
+      <c r="F176" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G176">
         <v>78</v>
       </c>
@@ -8855,6 +9413,9 @@
       <c r="E177" s="3">
         <v>37.99</v>
       </c>
+      <c r="F177" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G177">
         <v>20</v>
       </c>
@@ -8888,6 +9449,9 @@
       <c r="E178" s="3">
         <v>477.99</v>
       </c>
+      <c r="F178" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G178">
         <v>24</v>
       </c>
@@ -8921,6 +9485,9 @@
       <c r="E179" s="3">
         <v>499.99</v>
       </c>
+      <c r="F179" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G179">
         <v>14</v>
       </c>
@@ -8954,6 +9521,9 @@
       <c r="E180" s="3">
         <v>399.99</v>
       </c>
+      <c r="F180" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G180">
         <v>18</v>
       </c>
@@ -8987,6 +9557,9 @@
       <c r="E181" s="3">
         <v>399.99</v>
       </c>
+      <c r="F181" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G181">
         <v>16</v>
       </c>
@@ -9020,6 +9593,9 @@
       <c r="E182" s="3">
         <v>497.99</v>
       </c>
+      <c r="F182" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G182">
         <v>40</v>
       </c>
@@ -9053,6 +9629,9 @@
       <c r="E183" s="3">
         <v>20.99</v>
       </c>
+      <c r="F183" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G183">
         <v>82</v>
       </c>
@@ -9086,6 +9665,9 @@
       <c r="E184" s="3">
         <v>499.99</v>
       </c>
+      <c r="F184" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G184">
         <v>8</v>
       </c>
@@ -9119,6 +9701,9 @@
       <c r="E185" s="3">
         <v>39.950000000000003</v>
       </c>
+      <c r="F185" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G185">
         <v>48</v>
       </c>
@@ -9152,6 +9737,9 @@
       <c r="E186" s="3">
         <v>229.99</v>
       </c>
+      <c r="F186" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G186">
         <v>7</v>
       </c>
@@ -9185,6 +9773,9 @@
       <c r="E187" s="3">
         <v>49.95</v>
       </c>
+      <c r="F187" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G187">
         <v>33</v>
       </c>
@@ -9218,6 +9809,9 @@
       <c r="E188" s="3">
         <v>65.19</v>
       </c>
+      <c r="F188" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G188">
         <v>98</v>
       </c>
@@ -9251,6 +9845,9 @@
       <c r="E189" s="3">
         <v>37.99</v>
       </c>
+      <c r="F189" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G189">
         <v>51</v>
       </c>
@@ -9284,6 +9881,9 @@
       <c r="E190" s="3">
         <v>397.99</v>
       </c>
+      <c r="F190" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G190">
         <v>83</v>
       </c>
@@ -9317,6 +9917,9 @@
       <c r="E191" s="3">
         <v>89.95</v>
       </c>
+      <c r="F191" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G191">
         <v>65</v>
       </c>
@@ -9350,6 +9953,9 @@
       <c r="E192" s="3">
         <v>49.99</v>
       </c>
+      <c r="F192" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G192">
         <v>70</v>
       </c>
@@ -9383,6 +9989,9 @@
       <c r="E193" s="3">
         <v>39.99</v>
       </c>
+      <c r="F193" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G193">
         <v>14</v>
       </c>
@@ -9416,6 +10025,9 @@
       <c r="E194" s="3">
         <v>79.95</v>
       </c>
+      <c r="F194" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G194">
         <v>45</v>
       </c>
@@ -9449,6 +10061,9 @@
       <c r="E195" s="3">
         <v>497.99</v>
       </c>
+      <c r="F195" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G195">
         <v>65</v>
       </c>
@@ -9482,6 +10097,9 @@
       <c r="E196" s="3">
         <v>39.950000000000003</v>
       </c>
+      <c r="F196" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G196">
         <v>31</v>
       </c>
@@ -9515,6 +10133,9 @@
       <c r="E197" s="3">
         <v>529</v>
       </c>
+      <c r="F197" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G197">
         <v>34</v>
       </c>
@@ -9548,6 +10169,9 @@
       <c r="E198" s="3">
         <v>49.99</v>
       </c>
+      <c r="F198" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G198">
         <v>26</v>
       </c>
@@ -9581,6 +10205,9 @@
       <c r="E199" s="3">
         <v>42.46</v>
       </c>
+      <c r="F199" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G199">
         <v>75</v>
       </c>
@@ -9614,6 +10241,9 @@
       <c r="E200" s="3">
         <v>39.99</v>
       </c>
+      <c r="F200" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G200">
         <v>95</v>
       </c>
@@ -9647,6 +10277,9 @@
       <c r="E201" s="3">
         <v>89.95</v>
       </c>
+      <c r="F201" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G201">
         <v>16</v>
       </c>
@@ -9680,6 +10313,9 @@
       <c r="E202" s="3">
         <v>449.99</v>
       </c>
+      <c r="F202" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G202">
         <v>79</v>
       </c>
@@ -9713,6 +10349,9 @@
       <c r="E203" s="3">
         <v>79.95</v>
       </c>
+      <c r="F203" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G203">
         <v>27</v>
       </c>
@@ -9746,6 +10385,9 @@
       <c r="E204" s="3">
         <v>78.989999999999995</v>
       </c>
+      <c r="F204" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G204">
         <v>9</v>
       </c>
@@ -9779,6 +10421,9 @@
       <c r="E205" s="3">
         <v>49.95</v>
       </c>
+      <c r="F205" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G205">
         <v>17</v>
       </c>
@@ -9812,6 +10457,9 @@
       <c r="E206" s="3">
         <v>329.99</v>
       </c>
+      <c r="F206" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G206">
         <v>64</v>
       </c>
@@ -9845,6 +10493,9 @@
       <c r="E207" s="3">
         <v>66.989999999999995</v>
       </c>
+      <c r="F207" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G207">
         <v>49</v>
       </c>
@@ -9878,6 +10529,9 @@
       <c r="E208" s="3">
         <v>477.99</v>
       </c>
+      <c r="F208" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G208">
         <v>90</v>
       </c>
@@ -9911,6 +10565,9 @@
       <c r="E209" s="3">
         <v>39.99</v>
       </c>
+      <c r="F209" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G209">
         <v>5</v>
       </c>
@@ -9944,6 +10601,9 @@
       <c r="E210" s="3">
         <v>399.99</v>
       </c>
+      <c r="F210" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G210">
         <v>91</v>
       </c>
@@ -9977,6 +10637,9 @@
       <c r="E211" s="3">
         <v>39.99</v>
       </c>
+      <c r="F211" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G211">
         <v>55</v>
       </c>
@@ -10010,6 +10673,9 @@
       <c r="E212" s="3">
         <v>499.99</v>
       </c>
+      <c r="F212" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G212">
         <v>28</v>
       </c>
@@ -10043,6 +10709,9 @@
       <c r="E213" s="3">
         <v>79.95</v>
       </c>
+      <c r="F213" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G213">
         <v>10</v>
       </c>
@@ -10076,6 +10745,9 @@
       <c r="E214" s="3">
         <v>447.99</v>
       </c>
+      <c r="F214" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G214">
         <v>15</v>
       </c>
@@ -10109,6 +10781,9 @@
       <c r="E215" s="3">
         <v>79.95</v>
       </c>
+      <c r="F215" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G215">
         <v>45</v>
       </c>
@@ -10142,6 +10817,9 @@
       <c r="E216" s="3">
         <v>299.99</v>
       </c>
+      <c r="F216" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G216">
         <v>91</v>
       </c>
@@ -10175,6 +10853,9 @@
       <c r="E217" s="3">
         <v>43.99</v>
       </c>
+      <c r="F217" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G217">
         <v>48</v>
       </c>
@@ -10208,6 +10889,9 @@
       <c r="E218" s="3">
         <v>29.99</v>
       </c>
+      <c r="F218" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G218">
         <v>93</v>
       </c>
@@ -10241,6 +10925,9 @@
       <c r="E219" s="3">
         <v>477.99</v>
       </c>
+      <c r="F219" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G219">
         <v>3</v>
       </c>
@@ -10274,6 +10961,9 @@
       <c r="E220" s="3">
         <v>549</v>
       </c>
+      <c r="F220" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G220">
         <v>80</v>
       </c>
@@ -10307,6 +10997,9 @@
       <c r="E221" s="3">
         <v>32.99</v>
       </c>
+      <c r="F221" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G221">
         <v>45</v>
       </c>
@@ -10340,6 +11033,9 @@
       <c r="E222" s="3">
         <v>497.99</v>
       </c>
+      <c r="F222" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G222">
         <v>27</v>
       </c>
@@ -10373,6 +11069,9 @@
       <c r="E223" s="3">
         <v>449.99</v>
       </c>
+      <c r="F223" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G223">
         <v>33</v>
       </c>
@@ -10406,6 +11105,9 @@
       <c r="E224" s="3">
         <v>431.99</v>
       </c>
+      <c r="F224" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G224">
         <v>75</v>
       </c>
@@ -10439,6 +11141,9 @@
       <c r="E225" s="3">
         <v>529</v>
       </c>
+      <c r="F225" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G225">
         <v>9</v>
       </c>
@@ -10472,6 +11177,9 @@
       <c r="E226" s="3">
         <v>99.99</v>
       </c>
+      <c r="F226" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G226">
         <v>60</v>
       </c>
@@ -10505,6 +11213,9 @@
       <c r="E227" s="3">
         <v>49.99</v>
       </c>
+      <c r="F227" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G227">
         <v>87</v>
       </c>
@@ -10538,6 +11249,9 @@
       <c r="E228" s="3">
         <v>49.99</v>
       </c>
+      <c r="F228" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G228">
         <v>10</v>
       </c>
@@ -10571,6 +11285,9 @@
       <c r="E229" s="3">
         <v>37.99</v>
       </c>
+      <c r="F229" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G229">
         <v>65</v>
       </c>
@@ -10604,6 +11321,9 @@
       <c r="E230" s="3">
         <v>499.99</v>
       </c>
+      <c r="F230" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G230">
         <v>7</v>
       </c>
@@ -10637,6 +11357,9 @@
       <c r="E231" s="3">
         <v>397.99</v>
       </c>
+      <c r="F231" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G231">
         <v>40</v>
       </c>
@@ -10670,6 +11393,9 @@
       <c r="E232" s="3">
         <v>477.99</v>
       </c>
+      <c r="F232" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G232">
         <v>75</v>
       </c>
@@ -10703,6 +11429,9 @@
       <c r="E233" s="3">
         <v>89.95</v>
       </c>
+      <c r="F233" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G233">
         <v>94</v>
       </c>
@@ -10736,6 +11465,9 @@
       <c r="E234" s="3">
         <v>39.99</v>
       </c>
+      <c r="F234" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G234">
         <v>97</v>
       </c>
@@ -10769,6 +11501,9 @@
       <c r="E235" s="3">
         <v>497.99</v>
       </c>
+      <c r="F235" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G235">
         <v>31</v>
       </c>
@@ -10802,6 +11537,9 @@
       <c r="E236" s="3">
         <v>299.99</v>
       </c>
+      <c r="F236" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G236">
         <v>87</v>
       </c>
@@ -10835,6 +11573,9 @@
       <c r="E237" s="3">
         <v>49.95</v>
       </c>
+      <c r="F237" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G237">
         <v>18</v>
       </c>
@@ -10868,6 +11609,9 @@
       <c r="E238" s="3">
         <v>29.95</v>
       </c>
+      <c r="F238" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G238">
         <v>8</v>
       </c>
@@ -10901,6 +11645,9 @@
       <c r="E239" s="3">
         <v>49.95</v>
       </c>
+      <c r="F239" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G239">
         <v>23</v>
       </c>
@@ -10934,6 +11681,9 @@
       <c r="E240" s="3">
         <v>37.99</v>
       </c>
+      <c r="F240" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G240">
         <v>42</v>
       </c>
@@ -10967,6 +11717,9 @@
       <c r="E241" s="3">
         <v>39.99</v>
       </c>
+      <c r="F241" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G241">
         <v>76</v>
       </c>
@@ -11000,6 +11753,9 @@
       <c r="E242" s="3">
         <v>479.99</v>
       </c>
+      <c r="F242" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G242">
         <v>46</v>
       </c>
@@ -11033,6 +11789,9 @@
       <c r="E243" s="3">
         <v>477.99</v>
       </c>
+      <c r="F243" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G243">
         <v>27</v>
       </c>
@@ -11066,6 +11825,9 @@
       <c r="E244" s="3">
         <v>496.36</v>
       </c>
+      <c r="F244" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G244">
         <v>94</v>
       </c>
@@ -11099,6 +11861,9 @@
       <c r="E245" s="3">
         <v>32.99</v>
       </c>
+      <c r="F245" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G245">
         <v>46</v>
       </c>
@@ -11132,6 +11897,9 @@
       <c r="E246" s="3">
         <v>49.99</v>
       </c>
+      <c r="F246" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G246">
         <v>75</v>
       </c>
@@ -11165,6 +11933,9 @@
       <c r="E247" s="3">
         <v>299.99</v>
       </c>
+      <c r="F247" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G247">
         <v>19</v>
       </c>
@@ -11198,6 +11969,9 @@
       <c r="E248" s="3">
         <v>78.989999999999995</v>
       </c>
+      <c r="F248" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G248">
         <v>47</v>
       </c>
@@ -11231,6 +12005,9 @@
       <c r="E249" s="3">
         <v>450.99</v>
       </c>
+      <c r="F249" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G249">
         <v>55</v>
       </c>
@@ -11264,6 +12041,9 @@
       <c r="E250" s="3">
         <v>42.46</v>
       </c>
+      <c r="F250" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G250">
         <v>70</v>
       </c>
@@ -11297,6 +12077,9 @@
       <c r="E251" s="3">
         <v>499.99</v>
       </c>
+      <c r="F251" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G251">
         <v>38</v>
       </c>
@@ -11330,6 +12113,9 @@
       <c r="E252" s="3">
         <v>49.95</v>
       </c>
+      <c r="F252" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G252">
         <v>20</v>
       </c>
@@ -11363,6 +12149,9 @@
       <c r="E253" s="3">
         <v>39.99</v>
       </c>
+      <c r="F253" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G253">
         <v>0</v>
       </c>
@@ -11396,6 +12185,9 @@
       <c r="E254" s="3">
         <v>20.99</v>
       </c>
+      <c r="F254" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G254">
         <v>91</v>
       </c>
@@ -11429,6 +12221,9 @@
       <c r="E255" s="3">
         <v>447.99</v>
       </c>
+      <c r="F255" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G255">
         <v>87</v>
       </c>
@@ -11462,6 +12257,9 @@
       <c r="E256" s="3">
         <v>497.99</v>
       </c>
+      <c r="F256" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G256">
         <v>26</v>
       </c>
@@ -11495,6 +12293,9 @@
       <c r="E257" s="3">
         <v>299.99</v>
       </c>
+      <c r="F257" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G257">
         <v>29</v>
       </c>
@@ -11528,6 +12329,9 @@
       <c r="E258" s="3">
         <v>49.95</v>
       </c>
+      <c r="F258" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G258">
         <v>40</v>
       </c>
@@ -11561,6 +12365,9 @@
       <c r="E259" s="3">
         <v>66.989999999999995</v>
       </c>
+      <c r="F259" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G259">
         <v>57</v>
       </c>
@@ -11594,6 +12401,9 @@
       <c r="E260" s="3">
         <v>29.99</v>
       </c>
+      <c r="F260" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G260">
         <v>82</v>
       </c>
@@ -11627,6 +12437,9 @@
       <c r="E261" s="3">
         <v>37.99</v>
       </c>
+      <c r="F261" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G261">
         <v>85</v>
       </c>
@@ -11660,6 +12473,9 @@
       <c r="E262" s="3">
         <v>39.99</v>
       </c>
+      <c r="F262" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G262">
         <v>74</v>
       </c>
@@ -11693,6 +12509,9 @@
       <c r="E263" s="3">
         <v>549</v>
       </c>
+      <c r="F263" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G263">
         <v>4</v>
       </c>
@@ -11726,6 +12545,9 @@
       <c r="E264" s="3">
         <v>20.99</v>
       </c>
+      <c r="F264" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G264">
         <v>14</v>
       </c>
@@ -11759,6 +12581,9 @@
       <c r="E265" s="3">
         <v>32.99</v>
       </c>
+      <c r="F265" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G265">
         <v>79</v>
       </c>
@@ -11792,6 +12617,9 @@
       <c r="E266" s="3">
         <v>79.95</v>
       </c>
+      <c r="F266" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G266">
         <v>88</v>
       </c>
@@ -11825,6 +12653,9 @@
       <c r="E267" s="3">
         <v>99.99</v>
       </c>
+      <c r="F267" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G267">
         <v>15</v>
       </c>
@@ -11858,6 +12689,9 @@
       <c r="E268" s="3">
         <v>450.99</v>
       </c>
+      <c r="F268" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G268">
         <v>44</v>
       </c>
@@ -11891,6 +12725,9 @@
       <c r="E269" s="3">
         <v>29.99</v>
       </c>
+      <c r="F269" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G269">
         <v>35</v>
       </c>
@@ -11924,6 +12761,9 @@
       <c r="E270" s="3">
         <v>37.99</v>
       </c>
+      <c r="F270" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G270">
         <v>49</v>
       </c>
@@ -11957,6 +12797,9 @@
       <c r="E271" s="3">
         <v>39.99</v>
       </c>
+      <c r="F271" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G271">
         <v>71</v>
       </c>
@@ -11990,6 +12833,9 @@
       <c r="E272" s="3">
         <v>477.99</v>
       </c>
+      <c r="F272" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G272">
         <v>14</v>
       </c>
@@ -12023,6 +12869,9 @@
       <c r="E273" s="3">
         <v>44.65</v>
       </c>
+      <c r="F273" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G273">
         <v>39</v>
       </c>
@@ -12056,6 +12905,9 @@
       <c r="E274" s="3">
         <v>497.99</v>
       </c>
+      <c r="F274" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G274">
         <v>88</v>
       </c>
@@ -12089,6 +12941,9 @@
       <c r="E275" s="3">
         <v>497.99</v>
       </c>
+      <c r="F275" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G275">
         <v>92</v>
       </c>
@@ -12122,6 +12977,9 @@
       <c r="E276" s="3">
         <v>499.99</v>
       </c>
+      <c r="F276" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G276">
         <v>79</v>
       </c>
@@ -12155,6 +13013,9 @@
       <c r="E277" s="3">
         <v>447.99</v>
       </c>
+      <c r="F277" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G277">
         <v>66</v>
       </c>
@@ -12188,6 +13049,9 @@
       <c r="E278" s="3">
         <v>299.99</v>
       </c>
+      <c r="F278" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G278">
         <v>29</v>
       </c>
@@ -12221,6 +13085,9 @@
       <c r="E279" s="3">
         <v>66.989999999999995</v>
       </c>
+      <c r="F279" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G279">
         <v>90</v>
       </c>
@@ -12254,6 +13121,9 @@
       <c r="E280" s="3">
         <v>29.95</v>
       </c>
+      <c r="F280" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G280">
         <v>33</v>
       </c>
@@ -12287,6 +13157,9 @@
       <c r="E281" s="3">
         <v>49.99</v>
       </c>
+      <c r="F281" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G281">
         <v>85</v>
       </c>
@@ -12320,6 +13193,9 @@
       <c r="E282" s="3">
         <v>397.99</v>
       </c>
+      <c r="F282" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G282">
         <v>56</v>
       </c>
@@ -12353,6 +13229,9 @@
       <c r="E283" s="3">
         <v>20.99</v>
       </c>
+      <c r="F283" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G283">
         <v>78</v>
       </c>
@@ -12386,6 +13265,9 @@
       <c r="E284" s="3">
         <v>496.36</v>
       </c>
+      <c r="F284" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G284">
         <v>35</v>
       </c>
@@ -12419,6 +13301,9 @@
       <c r="E285" s="3">
         <v>44.65</v>
       </c>
+      <c r="F285" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G285">
         <v>89</v>
       </c>
@@ -12452,6 +13337,9 @@
       <c r="E286" s="3">
         <v>20.99</v>
       </c>
+      <c r="F286" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G286">
         <v>24</v>
       </c>
@@ -12485,6 +13373,9 @@
       <c r="E287" s="3">
         <v>431.99</v>
       </c>
+      <c r="F287" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G287">
         <v>84</v>
       </c>
@@ -12518,6 +13409,9 @@
       <c r="E288" s="3">
         <v>529</v>
       </c>
+      <c r="F288" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G288">
         <v>46</v>
       </c>
@@ -12551,6 +13445,9 @@
       <c r="E289" s="3">
         <v>329.99</v>
       </c>
+      <c r="F289" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G289">
         <v>32</v>
       </c>
@@ -12584,6 +13481,9 @@
       <c r="E290" s="3">
         <v>49.95</v>
       </c>
+      <c r="F290" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G290">
         <v>77</v>
       </c>
@@ -12617,6 +13517,9 @@
       <c r="E291" s="3">
         <v>42.46</v>
       </c>
+      <c r="F291" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G291">
         <v>52</v>
       </c>
@@ -12650,6 +13553,9 @@
       <c r="E292" s="3">
         <v>38.99</v>
       </c>
+      <c r="F292" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G292">
         <v>47</v>
       </c>
@@ -12683,6 +13589,9 @@
       <c r="E293" s="3">
         <v>549.99</v>
       </c>
+      <c r="F293" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G293">
         <v>4</v>
       </c>
@@ -12716,6 +13625,9 @@
       <c r="E294" s="3">
         <v>497.99</v>
       </c>
+      <c r="F294" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G294">
         <v>88</v>
       </c>
@@ -12749,6 +13661,9 @@
       <c r="E295" s="3">
         <v>497.99</v>
       </c>
+      <c r="F295" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G295">
         <v>95</v>
       </c>
@@ -12782,6 +13697,9 @@
       <c r="E296" s="3">
         <v>39.950000000000003</v>
       </c>
+      <c r="F296" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G296">
         <v>74</v>
       </c>
@@ -12815,6 +13733,9 @@
       <c r="E297" s="3">
         <v>431.99</v>
       </c>
+      <c r="F297" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G297">
         <v>42</v>
       </c>
@@ -12848,6 +13769,9 @@
       <c r="E298" s="3">
         <v>229.99</v>
       </c>
+      <c r="F298" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G298">
         <v>35</v>
       </c>
@@ -12881,6 +13805,9 @@
       <c r="E299" s="3">
         <v>450.99</v>
       </c>
+      <c r="F299" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G299">
         <v>80</v>
       </c>
@@ -12914,6 +13841,9 @@
       <c r="E300" s="3">
         <v>49.95</v>
       </c>
+      <c r="F300" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G300">
         <v>27</v>
       </c>
@@ -12947,6 +13877,9 @@
       <c r="E301" s="3">
         <v>65.19</v>
       </c>
+      <c r="F301" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G301">
         <v>81</v>
       </c>
@@ -12980,6 +13913,9 @@
       <c r="E302" s="3">
         <v>159.99</v>
       </c>
+      <c r="F302" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G302">
         <v>18</v>
       </c>
@@ -13013,6 +13949,9 @@
       <c r="E303" s="3">
         <v>55.31</v>
       </c>
+      <c r="F303" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G303">
         <v>16</v>
       </c>
@@ -13046,6 +13985,9 @@
       <c r="E304" s="3">
         <v>229.98</v>
       </c>
+      <c r="F304" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G304">
         <v>58</v>
       </c>
@@ -13079,6 +14021,9 @@
       <c r="E305" s="3">
         <v>59.99</v>
       </c>
+      <c r="F305" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G305">
         <v>24</v>
       </c>
@@ -13112,6 +14057,9 @@
       <c r="E306" s="3">
         <v>137.99</v>
       </c>
+      <c r="F306" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G306">
         <v>91</v>
       </c>
@@ -13145,6 +14093,9 @@
       <c r="E307" s="3">
         <v>21.99</v>
       </c>
+      <c r="F307" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G307">
         <v>24</v>
       </c>
@@ -13178,6 +14129,9 @@
       <c r="E308" s="3">
         <v>179.98</v>
       </c>
+      <c r="F308" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G308">
         <v>8</v>
       </c>
@@ -13211,6 +14165,9 @@
       <c r="E309" s="3">
         <v>53.75</v>
       </c>
+      <c r="F309" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G309">
         <v>31</v>
       </c>
@@ -13244,6 +14201,9 @@
       <c r="E310" s="3">
         <v>179.99</v>
       </c>
+      <c r="F310" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G310">
         <v>54</v>
       </c>
@@ -13277,6 +14237,9 @@
       <c r="E311" s="3">
         <v>17.850000000000001</v>
       </c>
+      <c r="F311" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G311">
         <v>9</v>
       </c>
@@ -13310,6 +14273,9 @@
       <c r="E312" s="3">
         <v>53.75</v>
       </c>
+      <c r="F312" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G312">
         <v>39</v>
       </c>
@@ -13343,6 +14309,9 @@
       <c r="E313" s="3">
         <v>121.99</v>
       </c>
+      <c r="F313" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G313">
         <v>34</v>
       </c>
@@ -13376,6 +14345,9 @@
       <c r="E314" s="3">
         <v>69.989999999999995</v>
       </c>
+      <c r="F314" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G314">
         <v>87</v>
       </c>
@@ -13409,6 +14381,9 @@
       <c r="E315" s="3">
         <v>47.99</v>
       </c>
+      <c r="F315" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G315">
         <v>89</v>
       </c>
@@ -13442,6 +14417,9 @@
       <c r="E316" s="3">
         <v>59.99</v>
       </c>
+      <c r="F316" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G316">
         <v>58</v>
       </c>
@@ -13475,6 +14453,9 @@
       <c r="E317" s="3">
         <v>99.99</v>
       </c>
+      <c r="F317" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G317">
         <v>95</v>
       </c>
@@ -13508,6 +14489,9 @@
       <c r="E318" s="3">
         <v>159.99</v>
       </c>
+      <c r="F318" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G318">
         <v>12</v>
       </c>
@@ -13541,6 +14525,9 @@
       <c r="E319" s="3">
         <v>179.98</v>
       </c>
+      <c r="F319" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G319">
         <v>27</v>
       </c>
@@ -13574,6 +14561,9 @@
       <c r="E320" s="3">
         <v>44.99</v>
       </c>
+      <c r="F320" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G320">
         <v>23</v>
       </c>
@@ -13607,6 +14597,9 @@
       <c r="E321" s="3">
         <v>62.99</v>
       </c>
+      <c r="F321" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G321">
         <v>72</v>
       </c>
@@ -13640,6 +14633,9 @@
       <c r="E322" s="3">
         <v>77.989999999999995</v>
       </c>
+      <c r="F322" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G322">
         <v>26</v>
       </c>
@@ -13673,6 +14669,9 @@
       <c r="E323" s="3">
         <v>353.98</v>
       </c>
+      <c r="F323" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G323">
         <v>97</v>
       </c>
@@ -13706,6 +14705,9 @@
       <c r="E324" s="3">
         <v>121.99</v>
       </c>
+      <c r="F324" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G324">
         <v>0</v>
       </c>
@@ -13739,6 +14741,9 @@
       <c r="E325" s="3">
         <v>54.99</v>
       </c>
+      <c r="F325" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G325">
         <v>62</v>
       </c>
@@ -13772,6 +14777,9 @@
       <c r="E326" s="3">
         <v>20.99</v>
       </c>
+      <c r="F326" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G326">
         <v>46</v>
       </c>
@@ -13805,6 +14813,9 @@
       <c r="E327" s="3">
         <v>69.989999999999995</v>
       </c>
+      <c r="F327" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G327">
         <v>68</v>
       </c>
@@ -13838,6 +14849,9 @@
       <c r="E328" s="3">
         <v>56.68</v>
       </c>
+      <c r="F328" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G328">
         <v>83</v>
       </c>
@@ -13871,6 +14885,9 @@
       <c r="E329" s="3">
         <v>137.99</v>
       </c>
+      <c r="F329" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G329">
         <v>82</v>
       </c>
@@ -13904,6 +14921,9 @@
       <c r="E330" s="3">
         <v>159.99</v>
       </c>
+      <c r="F330" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G330">
         <v>95</v>
       </c>
@@ -13937,6 +14957,9 @@
       <c r="E331" s="3">
         <v>52.59</v>
       </c>
+      <c r="F331" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G331">
         <v>14</v>
       </c>
@@ -13970,6 +14993,9 @@
       <c r="E332" s="3">
         <v>52.52</v>
       </c>
+      <c r="F332" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G332">
         <v>97</v>
       </c>
@@ -14003,6 +15029,9 @@
       <c r="E333" s="3">
         <v>57.93</v>
       </c>
+      <c r="F333" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G333">
         <v>59</v>
       </c>
@@ -14036,6 +15065,9 @@
       <c r="E334" s="3">
         <v>353.98</v>
       </c>
+      <c r="F334" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G334">
         <v>100</v>
       </c>
@@ -14069,6 +15101,9 @@
       <c r="E335" s="3">
         <v>54.99</v>
       </c>
+      <c r="F335" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G335">
         <v>86</v>
       </c>
@@ -14102,6 +15137,9 @@
       <c r="E336" s="3">
         <v>55.31</v>
       </c>
+      <c r="F336" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G336">
         <v>93</v>
       </c>
@@ -14135,6 +15173,9 @@
       <c r="E337" s="3">
         <v>229.98</v>
       </c>
+      <c r="F337" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G337">
         <v>97</v>
       </c>
@@ -14168,6 +15209,9 @@
       <c r="E338" s="3">
         <v>59.99</v>
       </c>
+      <c r="F338" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G338">
         <v>43</v>
       </c>
@@ -14201,6 +15245,9 @@
       <c r="E339" s="3">
         <v>124.19</v>
       </c>
+      <c r="F339" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G339">
         <v>10</v>
       </c>
@@ -14234,6 +15281,9 @@
       <c r="E340" s="3">
         <v>21.99</v>
       </c>
+      <c r="F340" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G340">
         <v>99</v>
       </c>
@@ -14267,6 +15317,9 @@
       <c r="E341" s="3">
         <v>219.99</v>
       </c>
+      <c r="F341" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G341">
         <v>100</v>
       </c>
@@ -14300,6 +15353,9 @@
       <c r="E342" s="3">
         <v>49.99</v>
       </c>
+      <c r="F342" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G342">
         <v>67</v>
       </c>
@@ -14333,6 +15389,9 @@
       <c r="E343" s="3">
         <v>34.99</v>
       </c>
+      <c r="F343" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G343">
         <v>60</v>
       </c>
@@ -14366,6 +15425,9 @@
       <c r="E344" s="3">
         <v>174.99</v>
       </c>
+      <c r="F344" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G344">
         <v>29</v>
       </c>
@@ -14399,6 +15461,9 @@
       <c r="E345" s="3">
         <v>49</v>
       </c>
+      <c r="F345" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G345">
         <v>99</v>
       </c>
@@ -14432,6 +15497,9 @@
       <c r="E346" s="3">
         <v>159.99</v>
       </c>
+      <c r="F346" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G346">
         <v>21</v>
       </c>
@@ -14465,6 +15533,9 @@
       <c r="E347" s="3">
         <v>208.99</v>
       </c>
+      <c r="F347" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G347">
         <v>44</v>
       </c>
@@ -14498,6 +15569,9 @@
       <c r="E348" s="3">
         <v>56.68</v>
       </c>
+      <c r="F348" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G348">
         <v>15</v>
       </c>
@@ -14531,6 +15605,9 @@
       <c r="E349" s="3">
         <v>124.19</v>
       </c>
+      <c r="F349" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G349">
         <v>49</v>
       </c>
@@ -14564,6 +15641,9 @@
       <c r="E350" s="3">
         <v>25.89</v>
       </c>
+      <c r="F350" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G350">
         <v>55</v>
       </c>
@@ -14597,6 +15677,9 @@
       <c r="E351" s="3">
         <v>21.99</v>
       </c>
+      <c r="F351" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G351">
         <v>68</v>
       </c>
@@ -14630,6 +15713,9 @@
       <c r="E352" s="3">
         <v>219.99</v>
       </c>
+      <c r="F352" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G352">
         <v>26</v>
       </c>
@@ -14663,6 +15749,9 @@
       <c r="E353" s="3">
         <v>49</v>
       </c>
+      <c r="F353" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G353">
         <v>49</v>
       </c>
@@ -14696,6 +15785,9 @@
       <c r="E354" s="3">
         <v>449.99</v>
       </c>
+      <c r="F354" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G354">
         <v>58</v>
       </c>
@@ -14729,6 +15821,9 @@
       <c r="E355" s="3">
         <v>159.99</v>
       </c>
+      <c r="F355" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G355">
         <v>37</v>
       </c>
@@ -14762,6 +15857,9 @@
       <c r="E356" s="3">
         <v>229.98</v>
       </c>
+      <c r="F356" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G356">
         <v>91</v>
       </c>
@@ -14795,6 +15893,9 @@
       <c r="E357" s="3">
         <v>229.98</v>
       </c>
+      <c r="F357" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G357">
         <v>26</v>
       </c>
@@ -14828,6 +15929,9 @@
       <c r="E358" s="3">
         <v>52.59</v>
       </c>
+      <c r="F358" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G358">
         <v>50</v>
       </c>
@@ -14861,6 +15965,9 @@
       <c r="E359" s="3">
         <v>32</v>
       </c>
+      <c r="F359" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G359">
         <v>51</v>
       </c>
@@ -14894,6 +16001,9 @@
       <c r="E360" s="3">
         <v>139.99</v>
       </c>
+      <c r="F360" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G360">
         <v>9</v>
       </c>
@@ -14927,6 +16037,9 @@
       <c r="E361" s="3">
         <v>449.99</v>
       </c>
+      <c r="F361" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G361">
         <v>75</v>
       </c>
@@ -14960,6 +16073,9 @@
       <c r="E362" s="3">
         <v>80.739999999999995</v>
       </c>
+      <c r="F362" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G362">
         <v>7</v>
       </c>
@@ -14993,6 +16109,9 @@
       <c r="E363" s="3">
         <v>159.99</v>
       </c>
+      <c r="F363" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G363">
         <v>5</v>
       </c>
@@ -15026,6 +16145,9 @@
       <c r="E364" s="3">
         <v>57.93</v>
       </c>
+      <c r="F364" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G364">
         <v>42</v>
       </c>
@@ -15059,6 +16181,9 @@
       <c r="E365" s="3">
         <v>48.01</v>
       </c>
+      <c r="F365" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G365">
         <v>0</v>
       </c>
@@ -15092,6 +16217,9 @@
       <c r="E366" s="3">
         <v>20.99</v>
       </c>
+      <c r="F366" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G366">
         <v>61</v>
       </c>
@@ -15125,6 +16253,9 @@
       <c r="E367" s="3">
         <v>449.99</v>
       </c>
+      <c r="F367" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G367">
         <v>30</v>
       </c>
@@ -15158,6 +16289,9 @@
       <c r="E368" s="3">
         <v>99.99</v>
       </c>
+      <c r="F368" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G368">
         <v>26</v>
       </c>
@@ -15191,6 +16325,9 @@
       <c r="E369" s="3">
         <v>179.98</v>
       </c>
+      <c r="F369" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G369">
         <v>5</v>
       </c>
@@ -15224,6 +16361,9 @@
       <c r="E370" s="3">
         <v>32</v>
       </c>
+      <c r="F370" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G370">
         <v>46</v>
       </c>
@@ -15257,6 +16397,9 @@
       <c r="E371" s="3">
         <v>139.99</v>
       </c>
+      <c r="F371" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G371">
         <v>38</v>
       </c>
@@ -15290,6 +16433,9 @@
       <c r="E372" s="3">
         <v>49</v>
       </c>
+      <c r="F372" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G372">
         <v>62</v>
       </c>
@@ -15323,6 +16469,9 @@
       <c r="E373" s="3">
         <v>62.99</v>
       </c>
+      <c r="F373" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G373">
         <v>21</v>
       </c>
@@ -15356,6 +16505,9 @@
       <c r="E374" s="3">
         <v>125.41</v>
       </c>
+      <c r="F374" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G374">
         <v>99</v>
       </c>
@@ -15389,6 +16541,9 @@
       <c r="E375" s="3">
         <v>48.01</v>
       </c>
+      <c r="F375" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G375">
         <v>34</v>
       </c>
@@ -15422,6 +16577,9 @@
       <c r="E376" s="3">
         <v>99.99</v>
       </c>
+      <c r="F376" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G376">
         <v>74</v>
       </c>
@@ -15455,6 +16613,9 @@
       <c r="E377" s="3">
         <v>179.98</v>
       </c>
+      <c r="F377" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G377">
         <v>71</v>
       </c>
@@ -15488,6 +16649,9 @@
       <c r="E378" s="3">
         <v>209.99</v>
       </c>
+      <c r="F378" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G378">
         <v>22</v>
       </c>
@@ -15521,6 +16685,9 @@
       <c r="E379" s="3">
         <v>208.99</v>
       </c>
+      <c r="F379" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G379">
         <v>57</v>
       </c>
@@ -15554,6 +16721,9 @@
       <c r="E380" s="3">
         <v>55.31</v>
       </c>
+      <c r="F380" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G380">
         <v>46</v>
       </c>
@@ -15587,6 +16757,9 @@
       <c r="E381" s="3">
         <v>219.99</v>
       </c>
+      <c r="F381" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G381">
         <v>2</v>
       </c>
@@ -15620,6 +16793,9 @@
       <c r="E382" s="3">
         <v>179.98</v>
       </c>
+      <c r="F382" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G382">
         <v>46</v>
       </c>
@@ -15653,6 +16829,9 @@
       <c r="E383" s="3">
         <v>139.99</v>
       </c>
+      <c r="F383" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G383">
         <v>69</v>
       </c>
@@ -15686,6 +16865,9 @@
       <c r="E384" s="3">
         <v>49.99</v>
       </c>
+      <c r="F384" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G384">
         <v>49</v>
       </c>
@@ -15719,6 +16901,9 @@
       <c r="E385" s="3">
         <v>125.41</v>
       </c>
+      <c r="F385" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G385">
         <v>90</v>
       </c>
@@ -15752,6 +16937,9 @@
       <c r="E386" s="3">
         <v>57.93</v>
       </c>
+      <c r="F386" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G386">
         <v>12</v>
       </c>
@@ -15785,6 +16973,9 @@
       <c r="E387" s="3">
         <v>209.99</v>
       </c>
+      <c r="F387" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G387">
         <v>37</v>
       </c>
@@ -15818,6 +17009,9 @@
       <c r="E388" s="3">
         <v>47.99</v>
       </c>
+      <c r="F388" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G388">
         <v>6</v>
       </c>
@@ -15851,6 +17045,9 @@
       <c r="E389" s="3">
         <v>56.68</v>
       </c>
+      <c r="F389" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G389">
         <v>3</v>
       </c>
@@ -15884,6 +17081,9 @@
       <c r="E390" s="3">
         <v>25.89</v>
       </c>
+      <c r="F390" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G390">
         <v>45</v>
       </c>
@@ -15917,6 +17117,9 @@
       <c r="E391" s="3">
         <v>46.69</v>
       </c>
+      <c r="F391" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G391">
         <v>12</v>
       </c>
@@ -15950,6 +17153,9 @@
       <c r="E392" s="3">
         <v>179.98</v>
       </c>
+      <c r="F392" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G392">
         <v>7</v>
       </c>
@@ -15983,6 +17189,9 @@
       <c r="E393" s="3">
         <v>49.99</v>
       </c>
+      <c r="F393" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G393">
         <v>76</v>
       </c>
@@ -16016,6 +17225,9 @@
       <c r="E394" s="3">
         <v>449.99</v>
       </c>
+      <c r="F394" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G394">
         <v>100</v>
       </c>
@@ -16049,6 +17261,9 @@
       <c r="E395" s="3">
         <v>17.850000000000001</v>
       </c>
+      <c r="F395" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G395">
         <v>3</v>
       </c>
@@ -16082,6 +17297,9 @@
       <c r="E396" s="3">
         <v>77.989999999999995</v>
       </c>
+      <c r="F396" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G396">
         <v>11</v>
       </c>
@@ -16115,6 +17333,9 @@
       <c r="E397" s="3">
         <v>80.739999999999995</v>
       </c>
+      <c r="F397" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G397">
         <v>19</v>
       </c>
@@ -16148,6 +17369,9 @@
       <c r="E398" s="3">
         <v>299.99</v>
       </c>
+      <c r="F398" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G398">
         <v>48</v>
       </c>
@@ -16181,6 +17405,9 @@
       <c r="E399" s="3">
         <v>159.99</v>
       </c>
+      <c r="F399" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G399">
         <v>16</v>
       </c>
@@ -16214,6 +17441,9 @@
       <c r="E400" s="3">
         <v>29.99</v>
       </c>
+      <c r="F400" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G400">
         <v>41</v>
       </c>
@@ -16247,6 +17477,9 @@
       <c r="E401" s="3">
         <v>89.99</v>
       </c>
+      <c r="F401" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G401">
         <v>67</v>
       </c>
@@ -16280,6 +17513,9 @@
       <c r="E402" s="3">
         <v>229.98</v>
       </c>
+      <c r="F402" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G402">
         <v>89</v>
       </c>
@@ -16313,6 +17549,9 @@
       <c r="E403" s="3">
         <v>52.52</v>
       </c>
+      <c r="F403" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G403">
         <v>41</v>
       </c>
@@ -16346,6 +17585,9 @@
       <c r="E404" s="3">
         <v>32</v>
       </c>
+      <c r="F404" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G404">
         <v>36</v>
       </c>
@@ -16379,6 +17621,9 @@
       <c r="E405" s="3">
         <v>179.99</v>
       </c>
+      <c r="F405" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G405">
         <v>17</v>
       </c>
@@ -16412,6 +17657,9 @@
       <c r="E406" s="3">
         <v>125.41</v>
       </c>
+      <c r="F406" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G406">
         <v>26</v>
       </c>
@@ -16445,6 +17693,9 @@
       <c r="E407" s="3">
         <v>21.99</v>
       </c>
+      <c r="F407" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G407">
         <v>10</v>
       </c>
@@ -16478,6 +17729,9 @@
       <c r="E408" s="3">
         <v>209.99</v>
       </c>
+      <c r="F408" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G408">
         <v>49</v>
       </c>
@@ -16511,6 +17765,9 @@
       <c r="E409" s="3">
         <v>299.99</v>
       </c>
+      <c r="F409" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G409">
         <v>29</v>
       </c>
@@ -16544,6 +17801,9 @@
       <c r="E410" s="3">
         <v>54.99</v>
       </c>
+      <c r="F410" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G410">
         <v>59</v>
       </c>
@@ -16577,6 +17837,9 @@
       <c r="E411" s="3">
         <v>208.99</v>
       </c>
+      <c r="F411" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G411">
         <v>15</v>
       </c>
@@ -16610,6 +17873,9 @@
       <c r="E412" s="3">
         <v>124.19</v>
       </c>
+      <c r="F412" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G412">
         <v>45</v>
       </c>
@@ -16643,6 +17909,9 @@
       <c r="E413" s="3">
         <v>137.99</v>
       </c>
+      <c r="F413" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G413">
         <v>23</v>
       </c>
@@ -16676,6 +17945,9 @@
       <c r="E414" s="3">
         <v>89.99</v>
       </c>
+      <c r="F414" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G414">
         <v>55</v>
       </c>
@@ -16709,6 +17981,9 @@
       <c r="E415" s="3">
         <v>46.69</v>
       </c>
+      <c r="F415" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G415">
         <v>10</v>
       </c>
@@ -16742,6 +18017,9 @@
       <c r="E416" s="3">
         <v>52.59</v>
       </c>
+      <c r="F416" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G416">
         <v>96</v>
       </c>
@@ -16775,6 +18053,9 @@
       <c r="E417" s="3">
         <v>44.99</v>
       </c>
+      <c r="F417" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G417">
         <v>51</v>
       </c>
@@ -16808,6 +18089,9 @@
       <c r="E418" s="3">
         <v>179.99</v>
       </c>
+      <c r="F418" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G418">
         <v>71</v>
       </c>
@@ -16841,6 +18125,9 @@
       <c r="E419" s="3">
         <v>299.99</v>
       </c>
+      <c r="F419" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G419">
         <v>64</v>
       </c>
@@ -16874,6 +18161,9 @@
       <c r="E420" s="3">
         <v>159.09</v>
       </c>
+      <c r="F420" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G420">
         <v>64</v>
       </c>
@@ -16907,6 +18197,9 @@
       <c r="E421" s="3">
         <v>159.99</v>
       </c>
+      <c r="F421" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G421">
         <v>63</v>
       </c>
@@ -16940,6 +18233,9 @@
       <c r="E422" s="3">
         <v>29.99</v>
       </c>
+      <c r="F422" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G422">
         <v>24</v>
       </c>
@@ -16973,6 +18269,9 @@
       <c r="E423" s="3">
         <v>20.99</v>
       </c>
+      <c r="F423" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G423">
         <v>99</v>
       </c>
@@ -17006,6 +18305,9 @@
       <c r="E424" s="3">
         <v>449.99</v>
       </c>
+      <c r="F424" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G424">
         <v>88</v>
       </c>
@@ -17039,6 +18341,9 @@
       <c r="E425" s="3">
         <v>25.89</v>
       </c>
+      <c r="F425" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G425">
         <v>97</v>
       </c>
@@ -17072,6 +18377,9 @@
       <c r="E426" s="3">
         <v>159.99</v>
       </c>
+      <c r="F426" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G426">
         <v>44</v>
       </c>
@@ -17105,6 +18413,9 @@
       <c r="E427" s="3">
         <v>77.989999999999995</v>
       </c>
+      <c r="F427" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G427">
         <v>59</v>
       </c>
@@ -17138,6 +18449,9 @@
       <c r="E428" s="3">
         <v>34.99</v>
       </c>
+      <c r="F428" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G428">
         <v>48</v>
       </c>
@@ -17171,6 +18485,9 @@
       <c r="E429" s="3">
         <v>80.739999999999995</v>
       </c>
+      <c r="F429" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G429">
         <v>41</v>
       </c>
@@ -17204,6 +18521,9 @@
       <c r="E430" s="3">
         <v>174.99</v>
       </c>
+      <c r="F430" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G430">
         <v>67</v>
       </c>
@@ -17237,6 +18557,9 @@
       <c r="E431" s="3">
         <v>21.99</v>
       </c>
+      <c r="F431" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G431">
         <v>87</v>
       </c>
@@ -17270,6 +18593,9 @@
       <c r="E432" s="3">
         <v>159.09</v>
       </c>
+      <c r="F432" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G432">
         <v>93</v>
       </c>
@@ -17303,6 +18629,9 @@
       <c r="E433" s="3">
         <v>47.99</v>
       </c>
+      <c r="F433" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G433">
         <v>97</v>
       </c>
@@ -17336,6 +18665,9 @@
       <c r="E434" s="3">
         <v>449.99</v>
       </c>
+      <c r="F434" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G434">
         <v>0</v>
       </c>
@@ -17369,6 +18701,9 @@
       <c r="E435" s="3">
         <v>89.99</v>
       </c>
+      <c r="F435" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G435">
         <v>27</v>
       </c>
@@ -17402,6 +18737,9 @@
       <c r="E436" s="3">
         <v>229.98</v>
       </c>
+      <c r="F436" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G436">
         <v>46</v>
       </c>
@@ -17435,6 +18773,9 @@
       <c r="E437" s="3">
         <v>159.09</v>
       </c>
+      <c r="F437" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G437">
         <v>73</v>
       </c>
@@ -17468,6 +18809,9 @@
       <c r="E438" s="3">
         <v>52.52</v>
       </c>
+      <c r="F438" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G438">
         <v>8</v>
       </c>
@@ -17501,6 +18845,9 @@
       <c r="E439" s="3">
         <v>53.75</v>
       </c>
+      <c r="F439" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G439">
         <v>31</v>
       </c>
@@ -17534,6 +18881,9 @@
       <c r="E440" s="3">
         <v>17.850000000000001</v>
       </c>
+      <c r="F440" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G440">
         <v>78</v>
       </c>
@@ -17567,6 +18917,9 @@
       <c r="E441" s="3">
         <v>121.99</v>
       </c>
+      <c r="F441" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G441">
         <v>57</v>
       </c>
@@ -17600,6 +18953,9 @@
       <c r="E442" s="3">
         <v>29.99</v>
       </c>
+      <c r="F442" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G442">
         <v>6</v>
       </c>
@@ -17633,6 +18989,9 @@
       <c r="E443" s="3">
         <v>69.989999999999995</v>
       </c>
+      <c r="F443" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G443">
         <v>10</v>
       </c>
@@ -17666,6 +19025,9 @@
       <c r="E444" s="3">
         <v>46.69</v>
       </c>
+      <c r="F444" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G444">
         <v>99</v>
       </c>
@@ -17699,6 +19061,9 @@
       <c r="E445" s="3">
         <v>44.99</v>
       </c>
+      <c r="F445" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G445">
         <v>83</v>
       </c>
@@ -17732,6 +19097,9 @@
       <c r="E446" s="3">
         <v>62.99</v>
       </c>
+      <c r="F446" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G446">
         <v>9</v>
       </c>
@@ -17765,6 +19133,9 @@
       <c r="E447" s="3">
         <v>34.99</v>
       </c>
+      <c r="F447" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G447">
         <v>83</v>
       </c>
@@ -17798,6 +19169,9 @@
       <c r="E448" s="3">
         <v>174.99</v>
       </c>
+      <c r="F448" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G448">
         <v>21</v>
       </c>
@@ -17831,6 +19205,9 @@
       <c r="E449" s="3">
         <v>21.99</v>
       </c>
+      <c r="F449" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G449">
         <v>1</v>
       </c>
@@ -17864,6 +19241,9 @@
       <c r="E450" s="3">
         <v>353.98</v>
       </c>
+      <c r="F450" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G450">
         <v>21</v>
       </c>
@@ -17897,6 +19277,9 @@
       <c r="E451" s="3">
         <v>48.01</v>
       </c>
+      <c r="F451" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G451">
         <v>29</v>
       </c>
@@ -17930,6 +19313,9 @@
       <c r="E452" s="3">
         <v>22.99</v>
       </c>
+      <c r="F452" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G452">
         <v>81</v>
       </c>
@@ -17963,6 +19349,9 @@
       <c r="E453" s="3">
         <v>199</v>
       </c>
+      <c r="F453" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G453">
         <v>95</v>
       </c>
@@ -17996,6 +19385,9 @@
       <c r="E454" s="3">
         <v>149.99</v>
       </c>
+      <c r="F454" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G454">
         <v>20</v>
       </c>
@@ -18029,6 +19421,9 @@
       <c r="E455" s="3">
         <v>58.99</v>
       </c>
+      <c r="F455" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G455">
         <v>14</v>
       </c>
@@ -18062,6 +19457,9 @@
       <c r="E456" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F456" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G456">
         <v>60</v>
       </c>
@@ -18095,6 +19493,9 @@
       <c r="E457" s="3">
         <v>89.95</v>
       </c>
+      <c r="F457" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G457">
         <v>35</v>
       </c>
@@ -18128,6 +19529,9 @@
       <c r="E458" s="3">
         <v>80.989999999999995</v>
       </c>
+      <c r="F458" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G458">
         <v>39</v>
       </c>
@@ -18161,6 +19565,9 @@
       <c r="E459" s="3">
         <v>199.99</v>
       </c>
+      <c r="F459" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G459">
         <v>52</v>
       </c>
@@ -18194,6 +19601,9 @@
       <c r="E460" s="3">
         <v>51.99</v>
       </c>
+      <c r="F460" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G460">
         <v>72</v>
       </c>
@@ -18227,6 +19637,9 @@
       <c r="E461" s="3">
         <v>199</v>
       </c>
+      <c r="F461" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G461">
         <v>12</v>
       </c>
@@ -18260,6 +19673,9 @@
       <c r="E462" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F462" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G462">
         <v>66</v>
       </c>
@@ -18293,6 +19709,9 @@
       <c r="E463" s="3">
         <v>89.95</v>
       </c>
+      <c r="F463" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G463">
         <v>23</v>
       </c>
@@ -18326,6 +19745,9 @@
       <c r="E464" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F464" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G464">
         <v>53</v>
       </c>
@@ -18359,6 +19781,9 @@
       <c r="E465" s="3">
         <v>49.95</v>
       </c>
+      <c r="F465" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G465">
         <v>64</v>
       </c>
@@ -18392,6 +19817,9 @@
       <c r="E466" s="3">
         <v>349.99</v>
       </c>
+      <c r="F466" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G466">
         <v>84</v>
       </c>
@@ -18425,6 +19853,9 @@
       <c r="E467" s="3">
         <v>199.98</v>
       </c>
+      <c r="F467" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G467">
         <v>61</v>
       </c>
@@ -18458,6 +19889,9 @@
       <c r="E468" s="3">
         <v>57.99</v>
       </c>
+      <c r="F468" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G468">
         <v>47</v>
       </c>
@@ -18491,6 +19925,9 @@
       <c r="E469" s="3">
         <v>56.99</v>
       </c>
+      <c r="F469" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G469">
         <v>30</v>
       </c>
@@ -18524,6 +19961,9 @@
       <c r="E470" s="3">
         <v>99.99</v>
       </c>
+      <c r="F470" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G470">
         <v>85</v>
       </c>
@@ -18557,6 +19997,9 @@
       <c r="E471" s="3">
         <v>63.99</v>
       </c>
+      <c r="F471" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G471">
         <v>43</v>
       </c>
@@ -18590,6 +20033,9 @@
       <c r="E472" s="3">
         <v>90.71</v>
       </c>
+      <c r="F472" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G472">
         <v>82</v>
       </c>
@@ -18623,6 +20069,9 @@
       <c r="E473" s="3">
         <v>99.99</v>
       </c>
+      <c r="F473" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G473">
         <v>52</v>
       </c>
@@ -18656,6 +20105,9 @@
       <c r="E474" s="3">
         <v>84.99</v>
       </c>
+      <c r="F474" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G474">
         <v>59</v>
       </c>
@@ -18689,6 +20141,9 @@
       <c r="E475" s="3">
         <v>270.99</v>
       </c>
+      <c r="F475" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G475">
         <v>27</v>
       </c>
@@ -18722,6 +20177,9 @@
       <c r="E476" s="3">
         <v>289.99</v>
       </c>
+      <c r="F476" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G476">
         <v>5</v>
       </c>
@@ -18755,6 +20213,9 @@
       <c r="E477" s="3">
         <v>59.99</v>
       </c>
+      <c r="F477" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G477">
         <v>20</v>
       </c>
@@ -18788,6 +20249,9 @@
       <c r="E478" s="3">
         <v>51.99</v>
       </c>
+      <c r="F478" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G478">
         <v>93</v>
       </c>
@@ -18821,6 +20285,9 @@
       <c r="E479" s="3">
         <v>199.99</v>
       </c>
+      <c r="F479" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G479">
         <v>8</v>
       </c>
@@ -18854,6 +20321,9 @@
       <c r="E480" s="3">
         <v>71.989999999999995</v>
       </c>
+      <c r="F480" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G480">
         <v>10</v>
       </c>
@@ -18887,6 +20357,9 @@
       <c r="E481" s="3">
         <v>84.99</v>
       </c>
+      <c r="F481" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G481">
         <v>68</v>
       </c>
@@ -18920,6 +20393,9 @@
       <c r="E482" s="3">
         <v>65.989999999999995</v>
       </c>
+      <c r="F482" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G482">
         <v>41</v>
       </c>
@@ -18953,6 +20429,9 @@
       <c r="E483" s="3">
         <v>89.99</v>
       </c>
+      <c r="F483" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G483">
         <v>33</v>
       </c>
@@ -18986,6 +20465,9 @@
       <c r="E484" s="3">
         <v>159.99</v>
       </c>
+      <c r="F484" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G484">
         <v>7</v>
       </c>
@@ -19019,6 +20501,9 @@
       <c r="E485" s="3">
         <v>57.99</v>
       </c>
+      <c r="F485" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G485">
         <v>62</v>
       </c>
@@ -19052,6 +20537,9 @@
       <c r="E486" s="3">
         <v>99.99</v>
       </c>
+      <c r="F486" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G486">
         <v>13</v>
       </c>
@@ -19085,6 +20573,9 @@
       <c r="E487" s="3">
         <v>59.99</v>
       </c>
+      <c r="F487" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G487">
         <v>74</v>
       </c>
@@ -19118,6 +20609,9 @@
       <c r="E488" s="3">
         <v>59.99</v>
       </c>
+      <c r="F488" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G488">
         <v>73</v>
       </c>
@@ -19151,6 +20645,9 @@
       <c r="E489" s="3">
         <v>72.989999999999995</v>
       </c>
+      <c r="F489" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G489">
         <v>11</v>
       </c>
@@ -19184,6 +20681,9 @@
       <c r="E490" s="3">
         <v>14.84</v>
       </c>
+      <c r="F490" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G490">
         <v>78</v>
       </c>
@@ -19217,6 +20717,9 @@
       <c r="E491" s="3">
         <v>71.989999999999995</v>
       </c>
+      <c r="F491" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G491">
         <v>59</v>
       </c>
@@ -19250,6 +20753,9 @@
       <c r="E492" s="3">
         <v>14.84</v>
       </c>
+      <c r="F492" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G492">
         <v>71</v>
       </c>
@@ -19283,6 +20789,9 @@
       <c r="E493" s="3">
         <v>159.97999999999999</v>
       </c>
+      <c r="F493" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G493">
         <v>87</v>
       </c>
@@ -19316,6 +20825,9 @@
       <c r="E494" s="3">
         <v>49.95</v>
       </c>
+      <c r="F494" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G494">
         <v>92</v>
       </c>
@@ -19349,6 +20861,9 @@
       <c r="E495" s="3">
         <v>199.98</v>
       </c>
+      <c r="F495" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G495">
         <v>20</v>
       </c>
@@ -19382,6 +20897,9 @@
       <c r="E496" s="3">
         <v>270.99</v>
       </c>
+      <c r="F496" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G496">
         <v>99</v>
       </c>
@@ -19415,6 +20933,9 @@
       <c r="E497" s="3">
         <v>99.99</v>
       </c>
+      <c r="F497" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G497">
         <v>89</v>
       </c>
@@ -19448,6 +20969,9 @@
       <c r="E498" s="3">
         <v>56.99</v>
       </c>
+      <c r="F498" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G498">
         <v>64</v>
       </c>
@@ -19481,6 +21005,9 @@
       <c r="E499" s="3">
         <v>83.99</v>
       </c>
+      <c r="F499" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G499">
         <v>5</v>
       </c>
@@ -19514,6 +21041,9 @@
       <c r="E500" s="3">
         <v>99</v>
       </c>
+      <c r="F500" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G500">
         <v>50</v>
       </c>
@@ -19547,6 +21077,9 @@
       <c r="E501" s="3">
         <v>71.989999999999995</v>
       </c>
+      <c r="F501" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G501">
         <v>78</v>
       </c>
@@ -19580,6 +21113,9 @@
       <c r="E502" s="3">
         <v>149.99</v>
       </c>
+      <c r="F502" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G502">
         <v>89</v>
       </c>
@@ -19613,6 +21149,9 @@
       <c r="E503" s="3">
         <v>63.99</v>
       </c>
+      <c r="F503" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G503">
         <v>72</v>
       </c>
@@ -19646,6 +21185,9 @@
       <c r="E504" s="3">
         <v>199.99</v>
       </c>
+      <c r="F504" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G504">
         <v>66</v>
       </c>
@@ -19679,6 +21221,9 @@
       <c r="E505" s="3">
         <v>159.99</v>
       </c>
+      <c r="F505" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G505">
         <v>37</v>
       </c>
@@ -19712,6 +21257,9 @@
       <c r="E506" s="3">
         <v>44.36</v>
       </c>
+      <c r="F506" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G506">
         <v>79</v>
       </c>
@@ -19745,6 +21293,9 @@
       <c r="E507" s="3">
         <v>89.99</v>
       </c>
+      <c r="F507" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G507">
         <v>15</v>
       </c>
@@ -19778,6 +21329,9 @@
       <c r="E508" s="3">
         <v>99</v>
       </c>
+      <c r="F508" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G508">
         <v>32</v>
       </c>
@@ -19811,6 +21365,9 @@
       <c r="E509" s="3">
         <v>17.989999999999998</v>
       </c>
+      <c r="F509" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G509">
         <v>100</v>
       </c>
@@ -19844,6 +21401,9 @@
       <c r="E510" s="3">
         <v>65.989999999999995</v>
       </c>
+      <c r="F510" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G510">
         <v>54</v>
       </c>
@@ -19877,6 +21437,9 @@
       <c r="E511" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F511" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G511">
         <v>38</v>
       </c>
@@ -19910,6 +21473,9 @@
       <c r="E512" s="3">
         <v>159.97999999999999</v>
       </c>
+      <c r="F512" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G512">
         <v>38</v>
       </c>
@@ -19943,6 +21509,9 @@
       <c r="E513" s="3">
         <v>89.99</v>
       </c>
+      <c r="F513" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G513">
         <v>85</v>
       </c>
@@ -19976,6 +21545,9 @@
       <c r="E514" s="3">
         <v>79.989999999999995</v>
       </c>
+      <c r="F514" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G514">
         <v>5</v>
       </c>
@@ -20009,6 +21581,9 @@
       <c r="E515" s="3">
         <v>49.99</v>
       </c>
+      <c r="F515" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G515">
         <v>68</v>
       </c>
@@ -20042,6 +21617,9 @@
       <c r="E516" s="3">
         <v>89.99</v>
       </c>
+      <c r="F516" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G516">
         <v>66</v>
       </c>
@@ -20075,6 +21653,9 @@
       <c r="E517" s="3">
         <v>63.99</v>
       </c>
+      <c r="F517" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G517">
         <v>99</v>
       </c>
@@ -20108,6 +21689,9 @@
       <c r="E518" s="3">
         <v>99.99</v>
       </c>
+      <c r="F518" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G518">
         <v>93</v>
       </c>
@@ -20141,6 +21725,9 @@
       <c r="E519" s="3">
         <v>159.97999999999999</v>
       </c>
+      <c r="F519" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G519">
         <v>18</v>
       </c>
@@ -20174,6 +21761,9 @@
       <c r="E520" s="3">
         <v>159.99</v>
       </c>
+      <c r="F520" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G520">
         <v>63</v>
       </c>
@@ -20207,6 +21797,9 @@
       <c r="E521" s="3">
         <v>55.99</v>
       </c>
+      <c r="F521" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G521">
         <v>6</v>
       </c>
@@ -20240,6 +21833,9 @@
       <c r="E522" s="3">
         <v>99.99</v>
       </c>
+      <c r="F522" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G522">
         <v>12</v>
       </c>
@@ -20273,6 +21869,9 @@
       <c r="E523" s="3">
         <v>348.99</v>
       </c>
+      <c r="F523" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G523">
         <v>88</v>
       </c>
@@ -20306,6 +21905,9 @@
       <c r="E524" s="3">
         <v>72.989999999999995</v>
       </c>
+      <c r="F524" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G524">
         <v>73</v>
       </c>
@@ -20339,6 +21941,9 @@
       <c r="E525" s="3">
         <v>199.99</v>
       </c>
+      <c r="F525" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G525">
         <v>31</v>
       </c>
@@ -20372,6 +21977,9 @@
       <c r="E526" s="3">
         <v>199</v>
       </c>
+      <c r="F526" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G526">
         <v>69</v>
       </c>
@@ -20405,6 +22013,9 @@
       <c r="E527" s="3">
         <v>44.35</v>
       </c>
+      <c r="F527" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G527">
         <v>92</v>
       </c>
@@ -20438,6 +22049,9 @@
       <c r="E528" s="3">
         <v>80.989999999999995</v>
       </c>
+      <c r="F528" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G528">
         <v>20</v>
       </c>
@@ -20471,6 +22085,9 @@
       <c r="E529" s="3">
         <v>65.989999999999995</v>
       </c>
+      <c r="F529" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G529">
         <v>50</v>
       </c>
@@ -20504,6 +22121,9 @@
       <c r="E530" s="3">
         <v>84.99</v>
       </c>
+      <c r="F530" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G530">
         <v>42</v>
       </c>
@@ -20537,6 +22157,9 @@
       <c r="E531" s="3">
         <v>199.98</v>
       </c>
+      <c r="F531" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G531">
         <v>2</v>
       </c>
@@ -20570,6 +22193,9 @@
       <c r="E532" s="3">
         <v>75</v>
       </c>
+      <c r="F532" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G532">
         <v>20</v>
       </c>
@@ -20603,6 +22229,9 @@
       <c r="E533" s="3">
         <v>348.99</v>
       </c>
+      <c r="F533" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G533">
         <v>45</v>
       </c>
@@ -20636,6 +22265,9 @@
       <c r="E534" s="3">
         <v>49.99</v>
       </c>
+      <c r="F534" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G534">
         <v>43</v>
       </c>
@@ -20669,6 +22301,9 @@
       <c r="E535" s="3">
         <v>80.989999999999995</v>
       </c>
+      <c r="F535" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G535">
         <v>59</v>
       </c>
@@ -20702,6 +22337,9 @@
       <c r="E536" s="3">
         <v>249.99</v>
       </c>
+      <c r="F536" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G536">
         <v>94</v>
       </c>
@@ -20735,6 +22373,9 @@
       <c r="E537" s="3">
         <v>71.989999999999995</v>
       </c>
+      <c r="F537" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G537">
         <v>9</v>
       </c>
@@ -20768,6 +22409,9 @@
       <c r="E538" s="3">
         <v>22.99</v>
       </c>
+      <c r="F538" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G538">
         <v>87</v>
       </c>
@@ -20801,6 +22445,9 @@
       <c r="E539" s="3">
         <v>199</v>
       </c>
+      <c r="F539" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G539">
         <v>95</v>
       </c>
@@ -20834,6 +22481,9 @@
       <c r="E540" s="3">
         <v>154.94999999999999</v>
       </c>
+      <c r="F540" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G540">
         <v>47</v>
       </c>
@@ -20867,6 +22517,9 @@
       <c r="E541" s="3">
         <v>14.84</v>
       </c>
+      <c r="F541" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G541">
         <v>77</v>
       </c>
@@ -20900,6 +22553,9 @@
       <c r="E542" s="3">
         <v>65.989999999999995</v>
       </c>
+      <c r="F542" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G542">
         <v>93</v>
       </c>
@@ -20933,6 +22589,9 @@
       <c r="E543" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F543" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G543">
         <v>97</v>
       </c>
@@ -20966,6 +22625,9 @@
       <c r="E544" s="3">
         <v>289.99</v>
       </c>
+      <c r="F544" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G544">
         <v>40</v>
       </c>
@@ -20999,6 +22661,9 @@
       <c r="E545" s="3">
         <v>72.989999999999995</v>
       </c>
+      <c r="F545" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G545">
         <v>76</v>
       </c>
@@ -21032,6 +22697,9 @@
       <c r="E546" s="3">
         <v>71.989999999999995</v>
       </c>
+      <c r="F546" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G546">
         <v>80</v>
       </c>
@@ -21065,6 +22733,9 @@
       <c r="E547" s="3">
         <v>84.99</v>
       </c>
+      <c r="F547" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G547">
         <v>31</v>
       </c>
@@ -21098,6 +22769,9 @@
       <c r="E548" s="3">
         <v>44.35</v>
       </c>
+      <c r="F548" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G548">
         <v>34</v>
       </c>
@@ -21131,6 +22805,9 @@
       <c r="E549" s="3">
         <v>65.989999999999995</v>
       </c>
+      <c r="F549" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G549">
         <v>45</v>
       </c>
@@ -21164,6 +22841,9 @@
       <c r="E550" s="3">
         <v>44.36</v>
       </c>
+      <c r="F550" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G550">
         <v>58</v>
       </c>
@@ -21197,6 +22877,9 @@
       <c r="E551" s="3">
         <v>59.99</v>
       </c>
+      <c r="F551" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G551">
         <v>52</v>
       </c>
@@ -21230,6 +22913,9 @@
       <c r="E552" s="3">
         <v>66.989999999999995</v>
       </c>
+      <c r="F552" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G552">
         <v>98</v>
       </c>
@@ -21263,6 +22949,9 @@
       <c r="E553" s="3">
         <v>89.99</v>
       </c>
+      <c r="F553" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G553">
         <v>6</v>
       </c>
@@ -21296,6 +22985,9 @@
       <c r="E554" s="3">
         <v>83.99</v>
       </c>
+      <c r="F554" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G554">
         <v>35</v>
       </c>
@@ -21329,6 +23021,9 @@
       <c r="E555" s="3">
         <v>249.99</v>
       </c>
+      <c r="F555" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G555">
         <v>73</v>
       </c>
@@ -21362,6 +23057,9 @@
       <c r="E556" s="3">
         <v>154.94999999999999</v>
       </c>
+      <c r="F556" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G556">
         <v>74</v>
       </c>
@@ -21395,6 +23093,9 @@
       <c r="E557" s="3">
         <v>58.99</v>
       </c>
+      <c r="F557" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G557">
         <v>29</v>
       </c>
@@ -21428,6 +23129,9 @@
       <c r="E558" s="3">
         <v>58.99</v>
       </c>
+      <c r="F558" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G558">
         <v>25</v>
       </c>
@@ -21461,6 +23165,9 @@
       <c r="E559" s="3">
         <v>90.71</v>
       </c>
+      <c r="F559" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G559">
         <v>9</v>
       </c>
@@ -21494,6 +23201,9 @@
       <c r="E560" s="3">
         <v>270.99</v>
       </c>
+      <c r="F560" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G560">
         <v>89</v>
       </c>
@@ -21527,6 +23237,9 @@
       <c r="E561" s="3">
         <v>66.989999999999995</v>
       </c>
+      <c r="F561" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G561">
         <v>91</v>
       </c>
@@ -21560,6 +23273,9 @@
       <c r="E562" s="3">
         <v>79.989999999999995</v>
       </c>
+      <c r="F562" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G562">
         <v>23</v>
       </c>
@@ -21593,6 +23309,9 @@
       <c r="E563" s="3">
         <v>75</v>
       </c>
+      <c r="F563" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G563">
         <v>48</v>
       </c>
@@ -21626,6 +23345,9 @@
       <c r="E564" s="3">
         <v>79.989999999999995</v>
       </c>
+      <c r="F564" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G564">
         <v>51</v>
       </c>
@@ -21659,6 +23381,9 @@
       <c r="E565" s="3">
         <v>154.94999999999999</v>
       </c>
+      <c r="F565" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G565">
         <v>87</v>
       </c>
@@ -21692,6 +23417,9 @@
       <c r="E566" s="3">
         <v>64.989999999999995</v>
       </c>
+      <c r="F566" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G566">
         <v>92</v>
       </c>
@@ -21725,6 +23453,9 @@
       <c r="E567" s="3">
         <v>17.989999999999998</v>
       </c>
+      <c r="F567" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G567">
         <v>87</v>
       </c>
@@ -21758,6 +23489,9 @@
       <c r="E568" s="3">
         <v>349.99</v>
       </c>
+      <c r="F568" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G568">
         <v>94</v>
       </c>
@@ -21791,6 +23525,9 @@
       <c r="E569" s="3">
         <v>349.99</v>
       </c>
+      <c r="F569" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G569">
         <v>79</v>
       </c>
@@ -21824,6 +23561,9 @@
       <c r="E570" s="3">
         <v>289.99</v>
       </c>
+      <c r="F570" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G570">
         <v>93</v>
       </c>
@@ -21857,6 +23597,9 @@
       <c r="E571" s="3">
         <v>59.99</v>
       </c>
+      <c r="F571" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G571">
         <v>78</v>
       </c>
@@ -21890,6 +23633,9 @@
       <c r="E572" s="3">
         <v>51.99</v>
       </c>
+      <c r="F572" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G572">
         <v>91</v>
       </c>
@@ -21923,6 +23669,9 @@
       <c r="E573" s="3">
         <v>75</v>
       </c>
+      <c r="F573" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G573">
         <v>40</v>
       </c>
@@ -21956,6 +23705,9 @@
       <c r="E574" s="3">
         <v>17.989999999999998</v>
       </c>
+      <c r="F574" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G574">
         <v>83</v>
       </c>
@@ -21989,6 +23741,9 @@
       <c r="E575" s="3">
         <v>249.99</v>
       </c>
+      <c r="F575" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G575">
         <v>27</v>
       </c>
@@ -22022,6 +23777,9 @@
       <c r="E576" s="3">
         <v>199</v>
       </c>
+      <c r="F576" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G576">
         <v>32</v>
       </c>
@@ -22055,6 +23813,9 @@
       <c r="E577" s="3">
         <v>44.35</v>
       </c>
+      <c r="F577" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G577">
         <v>84</v>
       </c>
@@ -22088,6 +23849,9 @@
       <c r="E578" s="3">
         <v>22.99</v>
       </c>
+      <c r="F578" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G578">
         <v>67</v>
       </c>
@@ -22121,6 +23885,9 @@
       <c r="E579" s="3">
         <v>199.99</v>
       </c>
+      <c r="F579" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G579">
         <v>95</v>
       </c>
@@ -22154,6 +23921,9 @@
       <c r="E580" s="3">
         <v>55.99</v>
       </c>
+      <c r="F580" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G580">
         <v>72</v>
       </c>
@@ -22187,6 +23957,9 @@
       <c r="E581" s="3">
         <v>56.99</v>
       </c>
+      <c r="F581" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G581">
         <v>82</v>
       </c>
@@ -22220,6 +23993,9 @@
       <c r="E582" s="3">
         <v>66.989999999999995</v>
       </c>
+      <c r="F582" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G582">
         <v>23</v>
       </c>
@@ -22253,6 +24029,9 @@
       <c r="E583" s="3">
         <v>199.99</v>
       </c>
+      <c r="F583" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G583">
         <v>64</v>
       </c>
@@ -22286,6 +24065,9 @@
       <c r="E584" s="3">
         <v>199</v>
       </c>
+      <c r="F584" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G584">
         <v>87</v>
       </c>
@@ -22319,6 +24101,9 @@
       <c r="E585" s="3">
         <v>149.99</v>
       </c>
+      <c r="F585" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G585">
         <v>98</v>
       </c>
@@ -22352,6 +24137,9 @@
       <c r="E586" s="3">
         <v>89.95</v>
       </c>
+      <c r="F586" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G586">
         <v>93</v>
       </c>
@@ -22385,6 +24173,9 @@
       <c r="E587" s="3">
         <v>90.71</v>
       </c>
+      <c r="F587" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G587">
         <v>6</v>
       </c>
@@ -22418,6 +24209,9 @@
       <c r="E588" s="3">
         <v>49.95</v>
       </c>
+      <c r="F588" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G588">
         <v>30</v>
       </c>
@@ -22451,6 +24245,9 @@
       <c r="E589" s="3">
         <v>55.99</v>
       </c>
+      <c r="F589" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G589">
         <v>53</v>
       </c>
@@ -22484,6 +24281,9 @@
       <c r="E590" s="3">
         <v>44.36</v>
       </c>
+      <c r="F590" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G590">
         <v>85</v>
       </c>
@@ -22517,6 +24317,9 @@
       <c r="E591" s="3">
         <v>348.99</v>
       </c>
+      <c r="F591" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G591">
         <v>60</v>
       </c>
@@ -22550,6 +24353,9 @@
       <c r="E592" s="3">
         <v>89.99</v>
       </c>
+      <c r="F592" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G592">
         <v>89</v>
       </c>
@@ -22583,6 +24389,9 @@
       <c r="E593" s="3">
         <v>83.99</v>
       </c>
+      <c r="F593" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G593">
         <v>6</v>
       </c>
@@ -22616,6 +24425,9 @@
       <c r="E594" s="3">
         <v>71.989999999999995</v>
       </c>
+      <c r="F594" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G594">
         <v>22</v>
       </c>
@@ -22649,6 +24461,9 @@
       <c r="E595" s="3">
         <v>99</v>
       </c>
+      <c r="F595" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G595">
         <v>54</v>
       </c>
@@ -22682,6 +24497,9 @@
       <c r="E596" s="3">
         <v>84.99</v>
       </c>
+      <c r="F596" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G596">
         <v>42</v>
       </c>
@@ -22715,6 +24533,9 @@
       <c r="E597" s="3">
         <v>65.989999999999995</v>
       </c>
+      <c r="F597" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G597">
         <v>24</v>
       </c>
@@ -22748,6 +24569,9 @@
       <c r="E598" s="3">
         <v>84.99</v>
       </c>
+      <c r="F598" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G598">
         <v>90</v>
       </c>
@@ -22781,6 +24605,9 @@
       <c r="E599" s="3">
         <v>57.99</v>
       </c>
+      <c r="F599" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G599">
         <v>4</v>
       </c>
@@ -22814,6 +24641,9 @@
       <c r="E600" s="3">
         <v>59.99</v>
       </c>
+      <c r="F600" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G600">
         <v>16</v>
       </c>
@@ -22847,6 +24677,9 @@
       <c r="E601" s="3">
         <v>49.99</v>
       </c>
+      <c r="F601" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="G601">
         <v>99</v>
       </c>
@@ -22866,6 +24699,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E1">
     <cfRule type="notContainsBlanks" dxfId="8" priority="9">
       <formula>LEN(TRIM(E1))&gt;0</formula>
@@ -22911,7 +24745,609 @@
       <formula>LEN(TRIM(E551))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{45FAC4B6-B4D0-423F-A0CA-1FDF390F44D5}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{AAFC863B-689E-4B76-B821-85411FD4626A}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{B53E9D89-B02D-4D78-995D-3A647EC6F623}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{73DC5192-B259-4771-B9E6-33898F94F0BA}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{4145FA2E-0BD7-46B9-8CB5-56FF8C61837B}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{2F66D019-82C4-4356-9565-F5D9A60C685E}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{2F1C56B6-5787-45EE-B655-E2F183B3424A}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{2A10E52C-11E5-41B1-B7E9-38FDF75FA5C3}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{F24BD2E0-C558-4758-B3A7-57F4BCEE9DE9}"/>
+    <hyperlink ref="F18" r:id="rId10" xr:uid="{E9434C23-43AE-4106-940C-A4216B71D071}"/>
+    <hyperlink ref="F20" r:id="rId11" xr:uid="{3458F99E-810E-4692-B0C9-6374780DAFE0}"/>
+    <hyperlink ref="F22" r:id="rId12" xr:uid="{0BDCE442-1080-4AF7-B404-9B3FA2C5FC30}"/>
+    <hyperlink ref="F24" r:id="rId13" xr:uid="{F59C082B-994C-4E96-807A-0FC1118659A1}"/>
+    <hyperlink ref="F26" r:id="rId14" xr:uid="{011F9520-8677-4CFA-ABF0-8861E9B94734}"/>
+    <hyperlink ref="F28" r:id="rId15" xr:uid="{58E233E4-813A-4F44-8370-EB2151245026}"/>
+    <hyperlink ref="F30" r:id="rId16" xr:uid="{2920A79F-52AF-48B9-9D7E-F98569E5FDD2}"/>
+    <hyperlink ref="F32" r:id="rId17" xr:uid="{C2545C2A-1B98-4156-A455-A34A074C697C}"/>
+    <hyperlink ref="F34" r:id="rId18" xr:uid="{BDE3223A-A7CF-4CA6-8590-F9841C702E73}"/>
+    <hyperlink ref="F36" r:id="rId19" xr:uid="{A8D162F8-C61B-4180-BC3D-D0B3A1BBA084}"/>
+    <hyperlink ref="F38" r:id="rId20" xr:uid="{3B3B3914-7CD9-4DCD-AA22-A2E4AB43990E}"/>
+    <hyperlink ref="F40" r:id="rId21" xr:uid="{A71ED3F2-1827-4BAB-854F-F524563CD582}"/>
+    <hyperlink ref="F42" r:id="rId22" xr:uid="{99031DD2-1E42-466C-83A0-9981D87BDBFB}"/>
+    <hyperlink ref="F44" r:id="rId23" xr:uid="{3ECBDE53-FDF6-42E0-AF6D-3E977C16E0D4}"/>
+    <hyperlink ref="F46" r:id="rId24" xr:uid="{BE874E88-43B4-4305-8B79-FEC5C96B66AB}"/>
+    <hyperlink ref="F48" r:id="rId25" xr:uid="{6A6878DE-06E3-43C6-B2B0-15A4B5FAF437}"/>
+    <hyperlink ref="F50" r:id="rId26" xr:uid="{54F372E0-F96D-4117-B76B-972C4552CACE}"/>
+    <hyperlink ref="F52" r:id="rId27" xr:uid="{3C4225A2-840A-463C-9092-6BFF486778C5}"/>
+    <hyperlink ref="F54" r:id="rId28" xr:uid="{1852BE11-ED29-43D9-9561-374DEC2C3A73}"/>
+    <hyperlink ref="F56" r:id="rId29" xr:uid="{0723D6F2-7F8F-4E71-B94A-2BBD8791215B}"/>
+    <hyperlink ref="F58" r:id="rId30" xr:uid="{9C1980DF-479F-41F4-ADEA-3A9A0D909553}"/>
+    <hyperlink ref="F60" r:id="rId31" xr:uid="{A73C5ACA-B5C0-4F41-82CD-41069FB4014F}"/>
+    <hyperlink ref="F62" r:id="rId32" xr:uid="{F39D44DA-6B2F-4D0D-B9C4-ED40CDEA3399}"/>
+    <hyperlink ref="F64" r:id="rId33" xr:uid="{5F74A2A9-F44F-42BD-8F6D-99C8225E3F29}"/>
+    <hyperlink ref="F66" r:id="rId34" xr:uid="{6B7F03CA-1D79-468C-AED4-BBE9026CDFFB}"/>
+    <hyperlink ref="F68" r:id="rId35" xr:uid="{6BF4D55C-3DF6-4B81-A543-E477C2986D52}"/>
+    <hyperlink ref="F70" r:id="rId36" xr:uid="{2EB36A4D-ACB8-4F17-99E8-AFA835E1D4CB}"/>
+    <hyperlink ref="F72" r:id="rId37" xr:uid="{70B98D46-A018-46AE-B39B-2454ECE3E9D1}"/>
+    <hyperlink ref="F74" r:id="rId38" xr:uid="{3B001DE9-2052-4102-867D-C01989405011}"/>
+    <hyperlink ref="F76" r:id="rId39" xr:uid="{2563D861-2192-4847-B954-9CE0DAC1977D}"/>
+    <hyperlink ref="F78" r:id="rId40" xr:uid="{C5F379FA-3872-400B-A45D-2CDF6304A133}"/>
+    <hyperlink ref="F80" r:id="rId41" xr:uid="{F562FB67-9F87-4992-9CC1-851C39910B13}"/>
+    <hyperlink ref="F82" r:id="rId42" xr:uid="{05C15989-C691-400E-A4A3-704AE1183AB4}"/>
+    <hyperlink ref="F84" r:id="rId43" xr:uid="{93C6DD3A-9D7D-4A07-8BEF-3C0C8073921D}"/>
+    <hyperlink ref="F86" r:id="rId44" xr:uid="{6F2F3998-07EC-4BBD-962A-1E92357C89D3}"/>
+    <hyperlink ref="F88" r:id="rId45" xr:uid="{DDF2A988-1F1F-4A49-A787-FC00FBCA8CF9}"/>
+    <hyperlink ref="F90" r:id="rId46" xr:uid="{F574BC5A-CE70-488B-BBD6-CC972A75ED35}"/>
+    <hyperlink ref="F92" r:id="rId47" xr:uid="{2B6327EC-F9B7-4C6C-BB4B-E8D389965349}"/>
+    <hyperlink ref="F94" r:id="rId48" xr:uid="{9F44536B-E19D-4BA7-930B-236FFBD12C52}"/>
+    <hyperlink ref="F96" r:id="rId49" xr:uid="{D28F0269-6D49-4635-927E-32B97893120C}"/>
+    <hyperlink ref="F98" r:id="rId50" xr:uid="{0D682515-BA52-4B05-B751-FA40F062593B}"/>
+    <hyperlink ref="F100" r:id="rId51" xr:uid="{4B7A2083-564B-43E7-90D1-F40ADB1A4159}"/>
+    <hyperlink ref="F102" r:id="rId52" xr:uid="{9F27530C-44CF-4846-A63C-0C6FA5E8E38A}"/>
+    <hyperlink ref="F104" r:id="rId53" xr:uid="{53582D2A-8057-48AA-B5EE-FCE4E414C134}"/>
+    <hyperlink ref="F106" r:id="rId54" xr:uid="{42098BCD-DC90-49D7-A185-014638639386}"/>
+    <hyperlink ref="F108" r:id="rId55" xr:uid="{F2725F5F-4125-4B2D-8574-A37797A05CA4}"/>
+    <hyperlink ref="F110" r:id="rId56" xr:uid="{497F8945-0D6D-42A0-B26C-DE2AE58204E4}"/>
+    <hyperlink ref="F112" r:id="rId57" xr:uid="{7B4A06A0-AA33-43A0-9DF1-C5FEC0ABBD8B}"/>
+    <hyperlink ref="F114" r:id="rId58" xr:uid="{F3A48FD9-410D-4AFE-8C63-40905E9A63E4}"/>
+    <hyperlink ref="F116" r:id="rId59" xr:uid="{28CB2A50-1072-4FE4-A5C8-4F124BDCE330}"/>
+    <hyperlink ref="F118" r:id="rId60" xr:uid="{37A2F005-AFD9-4A9D-A52F-360663853F22}"/>
+    <hyperlink ref="F120" r:id="rId61" xr:uid="{6B168AA1-4946-4B30-9E80-F2EC099FBA5F}"/>
+    <hyperlink ref="F122" r:id="rId62" xr:uid="{0FE628BF-967B-4B6D-A4E1-F189F83FE020}"/>
+    <hyperlink ref="F124" r:id="rId63" xr:uid="{04C916D0-BCDD-45D8-9B86-1B63980DD497}"/>
+    <hyperlink ref="F126" r:id="rId64" xr:uid="{17E65315-82D2-452B-BDF0-ABC64B8F4A01}"/>
+    <hyperlink ref="F128" r:id="rId65" xr:uid="{66BD16F4-0E0E-4456-88A0-08679FE924C9}"/>
+    <hyperlink ref="F130" r:id="rId66" xr:uid="{0528ED8D-A044-44B5-B430-6B36A46EBF9D}"/>
+    <hyperlink ref="F132" r:id="rId67" xr:uid="{6091E596-963F-477B-85CA-FB60A4F8DE96}"/>
+    <hyperlink ref="F134" r:id="rId68" xr:uid="{557E3CAD-42B6-4D59-8483-94335309DC6C}"/>
+    <hyperlink ref="F136" r:id="rId69" xr:uid="{F1652E46-1519-4076-A348-7EE227A51960}"/>
+    <hyperlink ref="F138" r:id="rId70" xr:uid="{DC56434C-72FE-4384-9A71-DFFAABD1BE1E}"/>
+    <hyperlink ref="F140" r:id="rId71" xr:uid="{555A3E63-D4AF-4D78-BF24-1A9E78D048CF}"/>
+    <hyperlink ref="F142" r:id="rId72" xr:uid="{B39AFC51-05BD-43F8-A5A1-55C5CC3B33F4}"/>
+    <hyperlink ref="F144" r:id="rId73" xr:uid="{85A7744B-32EC-4125-93B0-8A1EAEB2CEA0}"/>
+    <hyperlink ref="F146" r:id="rId74" xr:uid="{1D1C4700-538E-40FD-98E6-B8603D81D16A}"/>
+    <hyperlink ref="F148" r:id="rId75" xr:uid="{92AB125A-E946-4931-8861-700819DF8E3F}"/>
+    <hyperlink ref="F150" r:id="rId76" xr:uid="{BA4BFB81-DA57-4FAA-BDAB-3235BBBE0768}"/>
+    <hyperlink ref="F152" r:id="rId77" xr:uid="{9D505CC2-5813-4655-A82C-2DA5DFAC686E}"/>
+    <hyperlink ref="F154" r:id="rId78" xr:uid="{7E1BD3FD-276E-42C3-A8B0-13C201CC9CAB}"/>
+    <hyperlink ref="F156" r:id="rId79" xr:uid="{2CA24CF4-2B0E-4081-8B47-53AE8D774C87}"/>
+    <hyperlink ref="F158" r:id="rId80" xr:uid="{7C6A28CC-6B8C-426A-A12E-48FB6DFF994E}"/>
+    <hyperlink ref="F160" r:id="rId81" xr:uid="{2E200071-E608-4AAF-B7E4-76381EACD0F6}"/>
+    <hyperlink ref="F162" r:id="rId82" xr:uid="{09F2F92E-3BE7-492E-8839-88F3F088CE71}"/>
+    <hyperlink ref="F164" r:id="rId83" xr:uid="{F052C4EF-A30A-43C2-A64C-5BF254E872CC}"/>
+    <hyperlink ref="F166" r:id="rId84" xr:uid="{CDC135B9-6B1C-44F9-A612-2DD5B5B421EE}"/>
+    <hyperlink ref="F168" r:id="rId85" xr:uid="{E912B00A-DEF5-4F71-A862-3FF1578DB3B1}"/>
+    <hyperlink ref="F170" r:id="rId86" xr:uid="{238C92ED-07CD-4F0F-92BA-604067D5206F}"/>
+    <hyperlink ref="F172" r:id="rId87" xr:uid="{B6A4311E-632F-4C5C-A9CA-1B0769290037}"/>
+    <hyperlink ref="F174" r:id="rId88" xr:uid="{718FA73D-0894-4538-85E2-42590C58C151}"/>
+    <hyperlink ref="F176" r:id="rId89" xr:uid="{E3FEBE7D-DDFF-4B1E-8F28-49DAC6D52DEB}"/>
+    <hyperlink ref="F178" r:id="rId90" xr:uid="{A1525914-C3EB-4D58-9E17-0E2A4B4C630E}"/>
+    <hyperlink ref="F180" r:id="rId91" xr:uid="{D1FD225C-93AF-4243-96E0-3A663A775BDF}"/>
+    <hyperlink ref="F182" r:id="rId92" xr:uid="{53104554-8694-4A33-89EB-237FE0F25DC5}"/>
+    <hyperlink ref="F184" r:id="rId93" xr:uid="{002C6A52-B4C6-4306-BB77-694ADCD3A55E}"/>
+    <hyperlink ref="F186" r:id="rId94" xr:uid="{FA14AE00-5D8B-40B9-8466-28F11FC3B351}"/>
+    <hyperlink ref="F188" r:id="rId95" xr:uid="{604D388C-BA33-4538-BFC5-F95863105785}"/>
+    <hyperlink ref="F190" r:id="rId96" xr:uid="{CCE10DB1-F7FA-4B73-8D4E-FFBAFCA5228C}"/>
+    <hyperlink ref="F192" r:id="rId97" xr:uid="{65B570EB-869F-429C-A5BD-1E3DDD01518E}"/>
+    <hyperlink ref="F194" r:id="rId98" xr:uid="{89FA5E25-0742-4A5B-80E3-AF428B5FB4A4}"/>
+    <hyperlink ref="F196" r:id="rId99" xr:uid="{41D16644-CE95-44F8-98E0-1D64F9D6119E}"/>
+    <hyperlink ref="F198" r:id="rId100" xr:uid="{7F12CF09-64E5-4247-AD8B-71A1D4C14E9B}"/>
+    <hyperlink ref="F200" r:id="rId101" xr:uid="{60EA3B54-492D-4386-A58B-4E4D2B8989EA}"/>
+    <hyperlink ref="F202" r:id="rId102" xr:uid="{6D4F387E-1733-427C-A950-2E9890510841}"/>
+    <hyperlink ref="F204" r:id="rId103" xr:uid="{A7D4DD74-2AE3-45F3-9B0B-92940CCE9D03}"/>
+    <hyperlink ref="F206" r:id="rId104" xr:uid="{B025BEBD-59B9-472B-B70A-9F8282C89F16}"/>
+    <hyperlink ref="F208" r:id="rId105" xr:uid="{764E279F-B5D4-4D1C-A4DA-CB014AA6B669}"/>
+    <hyperlink ref="F210" r:id="rId106" xr:uid="{B69E98F5-5B73-4602-A34B-F173949D50BF}"/>
+    <hyperlink ref="F212" r:id="rId107" xr:uid="{C4D75FB7-84C4-4369-AE3B-851372BB78B6}"/>
+    <hyperlink ref="F214" r:id="rId108" xr:uid="{D0BE1009-CC43-4CA4-AB95-CC48E4D492DF}"/>
+    <hyperlink ref="F216" r:id="rId109" xr:uid="{42C44399-9A80-456B-B2C7-4E158DCDCC65}"/>
+    <hyperlink ref="F218" r:id="rId110" xr:uid="{B5BCAFB9-923D-4410-8F00-9E80544216DF}"/>
+    <hyperlink ref="F220" r:id="rId111" xr:uid="{AD8ADEA8-3840-4A66-B66B-42F6E4A7DA79}"/>
+    <hyperlink ref="F222" r:id="rId112" xr:uid="{8F9658A5-3207-4821-BB62-14D24051C9E1}"/>
+    <hyperlink ref="F224" r:id="rId113" xr:uid="{093EB976-F419-4CFC-AD84-290D4C71DB3A}"/>
+    <hyperlink ref="F226" r:id="rId114" xr:uid="{BA2A5F15-B616-41C2-AC0E-67F05E957A21}"/>
+    <hyperlink ref="F228" r:id="rId115" xr:uid="{5ACF6010-2F15-4028-A5E7-BDB58BB28356}"/>
+    <hyperlink ref="F230" r:id="rId116" xr:uid="{382BDF7D-ABCF-4400-9351-1341400D00B3}"/>
+    <hyperlink ref="F232" r:id="rId117" xr:uid="{494E2309-911C-44AA-B634-FF513953C642}"/>
+    <hyperlink ref="F234" r:id="rId118" xr:uid="{0AFCCF2C-0983-4843-BBD7-308D489C4AAC}"/>
+    <hyperlink ref="F236" r:id="rId119" xr:uid="{A13BD6D9-A052-4E6E-8A38-C74DE9A94E35}"/>
+    <hyperlink ref="F238" r:id="rId120" xr:uid="{77B63E9E-7C2F-4069-AD10-72B960A6D568}"/>
+    <hyperlink ref="F240" r:id="rId121" xr:uid="{DBC10C84-0C38-48AD-B7C5-0598BD3592AD}"/>
+    <hyperlink ref="F242" r:id="rId122" xr:uid="{FB51651C-AD0B-46EA-AE2A-F7DD93A4B306}"/>
+    <hyperlink ref="F244" r:id="rId123" xr:uid="{E78B2075-0FC4-4105-9010-FF7B3E4C7F56}"/>
+    <hyperlink ref="F246" r:id="rId124" xr:uid="{860D1728-AC16-4B1E-AC98-346874FF179E}"/>
+    <hyperlink ref="F248" r:id="rId125" xr:uid="{54F74E7E-6724-4FD4-9E93-78F893002C33}"/>
+    <hyperlink ref="F250" r:id="rId126" xr:uid="{59DC0B8D-7FE9-4E64-838D-F2131B91F3D3}"/>
+    <hyperlink ref="F252" r:id="rId127" xr:uid="{14339FBB-441E-4833-83B6-FCCCFF984A19}"/>
+    <hyperlink ref="F254" r:id="rId128" xr:uid="{2F6211FF-96F3-45FF-92E4-AEDBB6E73B6F}"/>
+    <hyperlink ref="F256" r:id="rId129" xr:uid="{B05E2CE8-6878-43B4-A6D4-8BC6ACDAECB6}"/>
+    <hyperlink ref="F258" r:id="rId130" xr:uid="{93DC2F62-E472-4513-A361-73723F6E7CA3}"/>
+    <hyperlink ref="F260" r:id="rId131" xr:uid="{3472D1A4-775B-4E7C-AF90-5CCA128BAE8D}"/>
+    <hyperlink ref="F262" r:id="rId132" xr:uid="{E0A2E7AC-68FB-4C8F-8351-A0C357F6DAE9}"/>
+    <hyperlink ref="F264" r:id="rId133" xr:uid="{AA43C2B0-8C18-494F-B913-CECA75DB48B1}"/>
+    <hyperlink ref="F266" r:id="rId134" xr:uid="{F0EBEEDA-68FA-4C41-9FDF-A425E3028F62}"/>
+    <hyperlink ref="F268" r:id="rId135" xr:uid="{218C77FD-EABF-4B9C-BB99-C57F8714B18F}"/>
+    <hyperlink ref="F270" r:id="rId136" xr:uid="{5499D07B-A1C5-45E4-8125-03A190515931}"/>
+    <hyperlink ref="F272" r:id="rId137" xr:uid="{93F5140D-C446-4804-8591-E340F54659A2}"/>
+    <hyperlink ref="F274" r:id="rId138" xr:uid="{366ACFD4-B5F2-4959-9D7E-C051C61CC34C}"/>
+    <hyperlink ref="F276" r:id="rId139" xr:uid="{A95053A7-5BE2-433E-90FF-DCA561381265}"/>
+    <hyperlink ref="F278" r:id="rId140" xr:uid="{9DAD4CB1-D98B-44A5-9023-2DE7FC70A9EE}"/>
+    <hyperlink ref="F280" r:id="rId141" xr:uid="{478A8605-8BB8-404D-A366-6DD84407E3EB}"/>
+    <hyperlink ref="F282" r:id="rId142" xr:uid="{B1A9667E-E463-4E90-9617-32A4F9967BE0}"/>
+    <hyperlink ref="F284" r:id="rId143" xr:uid="{D1786BA4-F757-4317-ADF7-0AA2B5B7AEC3}"/>
+    <hyperlink ref="F286" r:id="rId144" xr:uid="{DE7BFB51-549F-48AE-B726-E523C097C71E}"/>
+    <hyperlink ref="F288" r:id="rId145" xr:uid="{B78BC165-42DC-4F0F-837A-6ACE54D14BC6}"/>
+    <hyperlink ref="F290" r:id="rId146" xr:uid="{FCA77E89-B032-4084-B9F7-A88B61ECCE7F}"/>
+    <hyperlink ref="F292" r:id="rId147" xr:uid="{735AB661-5AEB-457A-BD8D-0480576B1A7A}"/>
+    <hyperlink ref="F294" r:id="rId148" xr:uid="{D1C4C83A-3181-48E9-9EE1-7D331FA5634B}"/>
+    <hyperlink ref="F296" r:id="rId149" xr:uid="{F75059C0-432D-4D3A-9F7C-6FC65406596C}"/>
+    <hyperlink ref="F298" r:id="rId150" xr:uid="{CE1D25DD-6EA5-44D2-AEDF-FFF56C69BE94}"/>
+    <hyperlink ref="F300" r:id="rId151" xr:uid="{7BF169E5-2C61-4CA2-B255-B5F181FB45DF}"/>
+    <hyperlink ref="F302" r:id="rId152" xr:uid="{1C89CB30-5164-4E77-B298-FEE8017623BD}"/>
+    <hyperlink ref="F304" r:id="rId153" xr:uid="{FA1CEDF5-6599-4A44-9853-81AF708C5633}"/>
+    <hyperlink ref="F306" r:id="rId154" xr:uid="{7909849D-B290-4810-8901-751C8ACEE4E1}"/>
+    <hyperlink ref="F308" r:id="rId155" xr:uid="{305A7355-FC6D-4DA9-A58F-D43008FD3DA0}"/>
+    <hyperlink ref="F310" r:id="rId156" xr:uid="{3525DDA1-15FF-464B-853F-CE714D43F32D}"/>
+    <hyperlink ref="F312" r:id="rId157" xr:uid="{11F03B16-7E41-46C1-AF76-31621A21D0A6}"/>
+    <hyperlink ref="F314" r:id="rId158" xr:uid="{D0A586BD-F013-4F76-8871-083BA84891CD}"/>
+    <hyperlink ref="F316" r:id="rId159" xr:uid="{0D2C9D9A-24FA-499A-8221-36C440B2AC25}"/>
+    <hyperlink ref="F318" r:id="rId160" xr:uid="{C5C76D9E-8144-4A2C-9166-92C43ADAFA43}"/>
+    <hyperlink ref="F320" r:id="rId161" xr:uid="{FB6DB922-135F-480E-8976-AA6DBEA8B028}"/>
+    <hyperlink ref="F322" r:id="rId162" xr:uid="{8EE0D301-35B0-45E9-A3FA-580C95CA02C1}"/>
+    <hyperlink ref="F324" r:id="rId163" xr:uid="{C385C7E5-2FF2-4809-98B1-E4533FD79B6F}"/>
+    <hyperlink ref="F326" r:id="rId164" xr:uid="{28CA9C9E-3829-4842-A27F-3D00B3FB9796}"/>
+    <hyperlink ref="F328" r:id="rId165" xr:uid="{3C179C55-3F5A-42F5-8311-1329EEF0CFAA}"/>
+    <hyperlink ref="F330" r:id="rId166" xr:uid="{38CCED00-A461-4D4D-AAB6-B763AEB5F516}"/>
+    <hyperlink ref="F332" r:id="rId167" xr:uid="{1455EE53-1BC4-442B-A23C-E87D2C76032B}"/>
+    <hyperlink ref="F334" r:id="rId168" xr:uid="{9C4466FD-5186-40CF-BEB0-94CC2886CA81}"/>
+    <hyperlink ref="F336" r:id="rId169" xr:uid="{EBDE07CE-6A33-4B5E-BAFD-A5944B63F3FF}"/>
+    <hyperlink ref="F338" r:id="rId170" xr:uid="{1B1AC61C-727D-478A-B759-1AA71C0A9C2D}"/>
+    <hyperlink ref="F340" r:id="rId171" xr:uid="{8C3EF1A9-2616-4E43-ACEA-632C2385DD42}"/>
+    <hyperlink ref="F342" r:id="rId172" xr:uid="{CF96596C-CC94-4F0E-A123-0504816CC10B}"/>
+    <hyperlink ref="F344" r:id="rId173" xr:uid="{F2C5CC0F-483A-4802-9FDD-68F80B073F6B}"/>
+    <hyperlink ref="F346" r:id="rId174" xr:uid="{50002606-A14C-4F99-BEF9-067120BDD6F2}"/>
+    <hyperlink ref="F348" r:id="rId175" xr:uid="{D03D061D-B483-48DA-9E84-906CDA3CDA1B}"/>
+    <hyperlink ref="F350" r:id="rId176" xr:uid="{9D4C4A29-1BEA-4059-857F-4E7DEC58DD1A}"/>
+    <hyperlink ref="F352" r:id="rId177" xr:uid="{55D0E678-132A-4441-A85F-B2CF5021BA53}"/>
+    <hyperlink ref="F354" r:id="rId178" xr:uid="{8E9BAC12-358C-437E-BBB9-B260ACA36807}"/>
+    <hyperlink ref="F356" r:id="rId179" xr:uid="{FD147E8B-CB7C-4B5E-A851-FB2F3461C85A}"/>
+    <hyperlink ref="F358" r:id="rId180" xr:uid="{920E4DB8-0B05-4D72-8313-39FE6521F0B1}"/>
+    <hyperlink ref="F360" r:id="rId181" xr:uid="{AF73448C-120F-49C1-9E40-5D978320E60B}"/>
+    <hyperlink ref="F362" r:id="rId182" xr:uid="{89A109FF-0734-42B1-82CD-5ED321C6E237}"/>
+    <hyperlink ref="F364" r:id="rId183" xr:uid="{76E6D5A3-CF08-4FA2-8C5E-ED27462A2812}"/>
+    <hyperlink ref="F366" r:id="rId184" xr:uid="{4D5F4185-B504-49C8-8619-98C13998E5C7}"/>
+    <hyperlink ref="F368" r:id="rId185" xr:uid="{7107B7DF-D06D-448A-9774-D89FC96269C4}"/>
+    <hyperlink ref="F370" r:id="rId186" xr:uid="{8609B8A6-E3D8-4D5E-B8B8-ECC63C6EC079}"/>
+    <hyperlink ref="F372" r:id="rId187" xr:uid="{096EAF8E-3B25-4E9B-B4D2-58B92BE00FAE}"/>
+    <hyperlink ref="F374" r:id="rId188" xr:uid="{491A5D9E-9D9E-42E9-BD88-CE35A7320C4A}"/>
+    <hyperlink ref="F376" r:id="rId189" xr:uid="{58417BED-137B-4422-84A0-EF6F0A11C492}"/>
+    <hyperlink ref="F378" r:id="rId190" xr:uid="{A7C3D3A4-473C-4A7E-80CE-68D8446862E6}"/>
+    <hyperlink ref="F380" r:id="rId191" xr:uid="{1EFBD893-654F-41D8-B24B-E22DAEE178BD}"/>
+    <hyperlink ref="F382" r:id="rId192" xr:uid="{96E86B7B-7810-457A-B648-EED544F99450}"/>
+    <hyperlink ref="F384" r:id="rId193" xr:uid="{E6269E02-7FB8-4D35-B9E9-A49B0047EC79}"/>
+    <hyperlink ref="F386" r:id="rId194" xr:uid="{40DEFAD7-CA46-4069-AF0F-950973DDE1CB}"/>
+    <hyperlink ref="F388" r:id="rId195" xr:uid="{37FA04B8-00A6-4C81-977E-3B5535257447}"/>
+    <hyperlink ref="F390" r:id="rId196" xr:uid="{DC7227FF-BC7A-4F38-A54B-CD40AF9CD355}"/>
+    <hyperlink ref="F392" r:id="rId197" xr:uid="{EEF1311F-E7F4-41CB-A1C2-822CD95D86A7}"/>
+    <hyperlink ref="F394" r:id="rId198" xr:uid="{35B977B1-3230-4195-8DC5-805E6D38E5B3}"/>
+    <hyperlink ref="F396" r:id="rId199" xr:uid="{F73232E7-EEF0-4565-8B7D-5EF734AD5911}"/>
+    <hyperlink ref="F398" r:id="rId200" xr:uid="{C8E65C64-5145-4136-BF0B-78E1598401E9}"/>
+    <hyperlink ref="F400" r:id="rId201" xr:uid="{ADDE9A58-79AA-49F4-ADA8-E2F0A06969AB}"/>
+    <hyperlink ref="F402" r:id="rId202" xr:uid="{545B3489-71B5-42D7-9F80-2F45AC29A329}"/>
+    <hyperlink ref="F404" r:id="rId203" xr:uid="{6801F993-C80A-4770-8181-E210241CDE6D}"/>
+    <hyperlink ref="F406" r:id="rId204" xr:uid="{C13D991A-3186-4809-BFAD-F51DD5B9F40D}"/>
+    <hyperlink ref="F408" r:id="rId205" xr:uid="{65A62440-7B12-47F4-B11E-FE1ACCE0A083}"/>
+    <hyperlink ref="F410" r:id="rId206" xr:uid="{BC5CE8A5-CE7A-408F-A39B-3EF76C403877}"/>
+    <hyperlink ref="F412" r:id="rId207" xr:uid="{BE5AB712-84C8-4AF2-8871-82F4E5217381}"/>
+    <hyperlink ref="F414" r:id="rId208" xr:uid="{8B977A24-50AC-4B0E-AF6C-C61582E1A73E}"/>
+    <hyperlink ref="F416" r:id="rId209" xr:uid="{41996985-F551-43C6-B6CC-07F0ACEA714E}"/>
+    <hyperlink ref="F418" r:id="rId210" xr:uid="{27770B0B-181D-4290-AA2B-1EC5E494F4B6}"/>
+    <hyperlink ref="F420" r:id="rId211" xr:uid="{FEE038A6-08AA-40DC-8E14-961C8C03DDA1}"/>
+    <hyperlink ref="F422" r:id="rId212" xr:uid="{E3830BF3-3D7B-451C-BB3A-17F74C1C7C6D}"/>
+    <hyperlink ref="F424" r:id="rId213" xr:uid="{F7F9999B-30C9-46BF-BC38-13FE539C3501}"/>
+    <hyperlink ref="F426" r:id="rId214" xr:uid="{A7B091EC-DF35-40FD-925E-BC5EE042D0A4}"/>
+    <hyperlink ref="F428" r:id="rId215" xr:uid="{37C91AFF-87F0-44C9-98EA-703E5A0FCC3B}"/>
+    <hyperlink ref="F430" r:id="rId216" xr:uid="{A07391E2-2B6B-4710-AE5E-A8826EA9115A}"/>
+    <hyperlink ref="F432" r:id="rId217" xr:uid="{5996B76D-286F-46AE-8400-A08437723EE4}"/>
+    <hyperlink ref="F434" r:id="rId218" xr:uid="{29C488A3-4051-4B66-AA19-7D1B2F8D596D}"/>
+    <hyperlink ref="F436" r:id="rId219" xr:uid="{BE8F4094-7B1A-401C-B6E1-2AB177527F66}"/>
+    <hyperlink ref="F438" r:id="rId220" xr:uid="{275430B9-C407-4D9D-A867-A59A1A01D5FA}"/>
+    <hyperlink ref="F440" r:id="rId221" xr:uid="{B6A8F57C-FB9D-4232-A612-235A2182FB83}"/>
+    <hyperlink ref="F442" r:id="rId222" xr:uid="{EA0B9B0F-F4FD-4AC3-AE1D-A55A1A991CBC}"/>
+    <hyperlink ref="F444" r:id="rId223" xr:uid="{AEE2CEE9-0B86-4604-9C3F-1B00F0B06CF6}"/>
+    <hyperlink ref="F446" r:id="rId224" xr:uid="{215F7E85-3703-44A5-AF1C-58CB0385A992}"/>
+    <hyperlink ref="F448" r:id="rId225" xr:uid="{56B1E738-6D34-41B8-BB4C-9712BB11EF3D}"/>
+    <hyperlink ref="F450" r:id="rId226" xr:uid="{AE77C997-A565-47D6-BDCA-D6B52201F499}"/>
+    <hyperlink ref="F452" r:id="rId227" xr:uid="{B0495FCD-A7FD-4A15-AEE7-17D5F3A9B9CF}"/>
+    <hyperlink ref="F454" r:id="rId228" xr:uid="{10700ED5-B8E0-4881-9704-00819FC8EA34}"/>
+    <hyperlink ref="F456" r:id="rId229" xr:uid="{C96C058D-707F-4EFE-BD2E-9167940FC719}"/>
+    <hyperlink ref="F458" r:id="rId230" xr:uid="{F785AEDC-F01F-44FE-9BE6-C8E4DF370964}"/>
+    <hyperlink ref="F460" r:id="rId231" xr:uid="{E5EEC296-242C-49C8-A299-1189645A8CA8}"/>
+    <hyperlink ref="F462" r:id="rId232" xr:uid="{5C4BD8D8-17B5-4FFA-93B1-8873DF519B86}"/>
+    <hyperlink ref="F464" r:id="rId233" xr:uid="{E19D8F1B-F5BD-487B-BD76-BA3A4663DFC7}"/>
+    <hyperlink ref="F466" r:id="rId234" xr:uid="{DA6E5B53-D907-47B3-BD81-F97C94596D42}"/>
+    <hyperlink ref="F468" r:id="rId235" xr:uid="{036B7C9E-5374-4AC0-B384-BFD24209A1C5}"/>
+    <hyperlink ref="F470" r:id="rId236" xr:uid="{10074B1F-E0AC-4FAE-899C-2F280D2AD3F0}"/>
+    <hyperlink ref="F472" r:id="rId237" xr:uid="{71443D46-FC9A-4B61-9C6A-EA99D88D8625}"/>
+    <hyperlink ref="F474" r:id="rId238" xr:uid="{9980C398-D557-4659-B78D-CD0C8EE026C7}"/>
+    <hyperlink ref="F476" r:id="rId239" xr:uid="{A201A1DB-D47E-4B69-BA26-BF55F84D0025}"/>
+    <hyperlink ref="F478" r:id="rId240" xr:uid="{8AC1EE22-52F4-43DD-A05E-5653B22F6CB9}"/>
+    <hyperlink ref="F480" r:id="rId241" xr:uid="{A86197D2-3520-4E3F-9B86-10854555C583}"/>
+    <hyperlink ref="F482" r:id="rId242" xr:uid="{F907821D-E177-49B4-8E37-8E0029945331}"/>
+    <hyperlink ref="F484" r:id="rId243" xr:uid="{EAF72888-86AE-4870-8C50-DA0B0C1D8458}"/>
+    <hyperlink ref="F486" r:id="rId244" xr:uid="{C3BFF3C4-B862-490F-9348-A5D5946E3E5D}"/>
+    <hyperlink ref="F488" r:id="rId245" xr:uid="{D37A0442-C115-456B-A074-FEB1900DBFC9}"/>
+    <hyperlink ref="F490" r:id="rId246" xr:uid="{CAF0F52F-E4E4-47D9-94EC-627C1C0B097B}"/>
+    <hyperlink ref="F492" r:id="rId247" xr:uid="{A2FF6A2A-91D2-4C19-B066-99C71D5CBCDE}"/>
+    <hyperlink ref="F494" r:id="rId248" xr:uid="{50619FB8-89D4-4CB0-9443-74D8DD91CEC2}"/>
+    <hyperlink ref="F496" r:id="rId249" xr:uid="{8C78C188-33DE-45E8-9EA1-F3287FA6ED98}"/>
+    <hyperlink ref="F498" r:id="rId250" xr:uid="{51B5BEAE-83CC-4EAA-AD7E-C87093B3845C}"/>
+    <hyperlink ref="F500" r:id="rId251" xr:uid="{D67AD8C6-ACB5-4EE3-9CDD-B083EF8B4B87}"/>
+    <hyperlink ref="F502" r:id="rId252" xr:uid="{C8ABC793-8019-427D-8450-3D1AF3345B2E}"/>
+    <hyperlink ref="F504" r:id="rId253" xr:uid="{2BDE60FF-89ED-4137-8C2F-DF88049B2E25}"/>
+    <hyperlink ref="F506" r:id="rId254" xr:uid="{87A04336-A0C3-4B7D-B051-33CD67C1AD15}"/>
+    <hyperlink ref="F508" r:id="rId255" xr:uid="{4AF431AF-9204-48CE-84B0-F6AED85E54F0}"/>
+    <hyperlink ref="F510" r:id="rId256" xr:uid="{4F128522-E4E0-4842-B655-84264E68BA19}"/>
+    <hyperlink ref="F512" r:id="rId257" xr:uid="{66AAE117-6DEF-4EC6-B328-494C3EE1BF10}"/>
+    <hyperlink ref="F514" r:id="rId258" xr:uid="{F0769051-CE9D-465D-A222-F652D68FC558}"/>
+    <hyperlink ref="F516" r:id="rId259" xr:uid="{6A99A3CE-5434-4C91-9142-AFD40A03D0F3}"/>
+    <hyperlink ref="F518" r:id="rId260" xr:uid="{3484791E-F822-47E9-824B-AF25E9474A84}"/>
+    <hyperlink ref="F520" r:id="rId261" xr:uid="{C485A4D7-D9C0-4CE0-A084-9A8A92F2A30A}"/>
+    <hyperlink ref="F522" r:id="rId262" xr:uid="{3A64158A-A3E6-4AC5-A61D-DD700FC94FD4}"/>
+    <hyperlink ref="F524" r:id="rId263" xr:uid="{67D1CA7F-EBCE-4E91-8AB7-8B2A6678B3EB}"/>
+    <hyperlink ref="F526" r:id="rId264" xr:uid="{BD97D41A-AEDC-4B10-8D00-E105385686DE}"/>
+    <hyperlink ref="F528" r:id="rId265" xr:uid="{596BD911-AC43-41E0-B8A0-62CE16737212}"/>
+    <hyperlink ref="F530" r:id="rId266" xr:uid="{EB110632-3FB2-4CF4-A35B-48DD34D26DCA}"/>
+    <hyperlink ref="F532" r:id="rId267" xr:uid="{9B9F48C0-5663-4969-8E02-535E7FBF80C6}"/>
+    <hyperlink ref="F534" r:id="rId268" xr:uid="{D20D8EDE-3DDC-47FF-8097-46232334EFA3}"/>
+    <hyperlink ref="F536" r:id="rId269" xr:uid="{21D21CD3-0D0A-4D91-A0CF-270C1E4A953C}"/>
+    <hyperlink ref="F538" r:id="rId270" xr:uid="{664BAB34-2111-4D49-A2F1-41551DCA5FD2}"/>
+    <hyperlink ref="F540" r:id="rId271" xr:uid="{A4D61B21-30FA-4B08-ACC2-CC95B0CFAE62}"/>
+    <hyperlink ref="F542" r:id="rId272" xr:uid="{8047C2F3-DB98-43BB-9CCD-8979E4A7DA8F}"/>
+    <hyperlink ref="F544" r:id="rId273" xr:uid="{040A815B-7591-421B-97FC-32A4EA92E7F3}"/>
+    <hyperlink ref="F546" r:id="rId274" xr:uid="{9A08668D-70AA-4645-B48C-9C9F27AFDCF5}"/>
+    <hyperlink ref="F548" r:id="rId275" xr:uid="{37365633-9880-4141-AE5D-A77C7011AA1B}"/>
+    <hyperlink ref="F550" r:id="rId276" xr:uid="{8EE56FC2-94D6-45F5-9800-1714FF905A9B}"/>
+    <hyperlink ref="F552" r:id="rId277" xr:uid="{A61C0D28-6D6D-4F33-9A24-4583AF6EB1F3}"/>
+    <hyperlink ref="F554" r:id="rId278" xr:uid="{204C90BA-05A6-4375-AB98-22954F9BD480}"/>
+    <hyperlink ref="F556" r:id="rId279" xr:uid="{63E88A7E-DB08-46A5-9D01-036F82576A62}"/>
+    <hyperlink ref="F558" r:id="rId280" xr:uid="{69A4E222-0DA5-4C39-884D-F065D9C4FDAC}"/>
+    <hyperlink ref="F560" r:id="rId281" xr:uid="{1EBB707B-F203-4BF1-8C44-B154BB62AD4D}"/>
+    <hyperlink ref="F562" r:id="rId282" xr:uid="{59EB1404-33A5-4BC2-B007-657F28E5FCD6}"/>
+    <hyperlink ref="F564" r:id="rId283" xr:uid="{A54BE9CB-2B59-4BEB-B8D2-9C731E821CDC}"/>
+    <hyperlink ref="F566" r:id="rId284" xr:uid="{B1227BC8-7D27-414F-951D-BF362E2F2548}"/>
+    <hyperlink ref="F568" r:id="rId285" xr:uid="{59537940-F7B5-4226-86CA-26D62848E7C6}"/>
+    <hyperlink ref="F570" r:id="rId286" xr:uid="{3B96D82C-60F0-40DD-BFEC-421428BB08B4}"/>
+    <hyperlink ref="F572" r:id="rId287" xr:uid="{58AFF2DB-E9D1-442A-A021-3EC10971AEEB}"/>
+    <hyperlink ref="F574" r:id="rId288" xr:uid="{468F008D-7BD1-4A3C-8A50-A0F958F64355}"/>
+    <hyperlink ref="F576" r:id="rId289" xr:uid="{09CF649E-F6D0-4D49-A157-3D1758C074DA}"/>
+    <hyperlink ref="F578" r:id="rId290" xr:uid="{D2639DA4-B2F0-4444-9901-E32E8BAD7055}"/>
+    <hyperlink ref="F580" r:id="rId291" xr:uid="{8C4FD4C6-7F09-433D-AE58-79F03ED5B5F8}"/>
+    <hyperlink ref="F582" r:id="rId292" xr:uid="{24F63DFE-DB77-4030-8E90-8248250767A3}"/>
+    <hyperlink ref="F584" r:id="rId293" xr:uid="{8C97A487-4E9D-4064-9FC9-F143D77CC9F9}"/>
+    <hyperlink ref="F586" r:id="rId294" xr:uid="{59446E01-3B94-43FE-B04D-A7E88DAEA8D7}"/>
+    <hyperlink ref="F588" r:id="rId295" xr:uid="{9AE82A23-2C1E-4BBF-8107-DBD563EB7277}"/>
+    <hyperlink ref="F590" r:id="rId296" xr:uid="{5C158FE2-4729-41C7-81D5-002324316FC7}"/>
+    <hyperlink ref="F592" r:id="rId297" xr:uid="{D9DB4F0E-7799-4E8E-BD0B-AF327DCA7053}"/>
+    <hyperlink ref="F594" r:id="rId298" xr:uid="{5E1B24CE-7940-4E13-B9DF-92A5D6251A55}"/>
+    <hyperlink ref="F596" r:id="rId299" xr:uid="{2050F71D-6543-4780-8447-B262B6BE64ED}"/>
+    <hyperlink ref="F598" r:id="rId300" xr:uid="{5D7821FB-4094-473E-9814-EF98CDD39140}"/>
+    <hyperlink ref="F600" r:id="rId301" xr:uid="{814405C5-79C7-407C-8748-3345C99E32CB}"/>
+    <hyperlink ref="F5" r:id="rId302" xr:uid="{2D312225-2A36-41CC-80A4-07F1D88351D9}"/>
+    <hyperlink ref="F7" r:id="rId303" xr:uid="{D7E625D9-0CE7-496A-BA0D-CB7533D7075D}"/>
+    <hyperlink ref="F9" r:id="rId304" xr:uid="{EB6F8A8F-120D-4FFA-8457-F9CB521F4503}"/>
+    <hyperlink ref="F11" r:id="rId305" xr:uid="{518A7BCB-EC1A-4650-AE84-48D9F11B91BC}"/>
+    <hyperlink ref="F13" r:id="rId306" xr:uid="{3EB9196C-3B64-4298-935E-A3F2C1A01E10}"/>
+    <hyperlink ref="F15" r:id="rId307" xr:uid="{294C32CC-8923-4F0F-AC5A-F85B398DFB50}"/>
+    <hyperlink ref="F17" r:id="rId308" xr:uid="{635F8358-9F17-4C9E-9AC0-ED1AA16F4EE9}"/>
+    <hyperlink ref="F19" r:id="rId309" xr:uid="{904D55FC-8106-4FD3-8BAA-A839150FE6AC}"/>
+    <hyperlink ref="F21" r:id="rId310" xr:uid="{5EC85F4A-5989-4B05-9924-67A4D16553FC}"/>
+    <hyperlink ref="F23" r:id="rId311" xr:uid="{B642604D-6D8A-488B-8471-BFB5690302A5}"/>
+    <hyperlink ref="F25" r:id="rId312" xr:uid="{F2D55BE4-615D-4148-B196-D70F18BE336A}"/>
+    <hyperlink ref="F27" r:id="rId313" xr:uid="{F6ED8BB9-B626-45DF-8DC7-EDBAEC9EECEC}"/>
+    <hyperlink ref="F29" r:id="rId314" xr:uid="{56C1762E-8A8B-4990-9DED-ABE61673ECE0}"/>
+    <hyperlink ref="F31" r:id="rId315" xr:uid="{7D7BE694-D8BC-414C-B64A-352B8C59475D}"/>
+    <hyperlink ref="F33" r:id="rId316" xr:uid="{EFFEE884-6E76-4AE8-8CD4-251267B97D47}"/>
+    <hyperlink ref="F35" r:id="rId317" xr:uid="{8984A1F7-9FC3-4D88-AEF6-CD6B26BA5555}"/>
+    <hyperlink ref="F37" r:id="rId318" xr:uid="{E41CE0B1-857F-4D1F-A005-D1FC03BA9B0F}"/>
+    <hyperlink ref="F39" r:id="rId319" xr:uid="{B67046E8-5F64-4DC9-9D94-F7C61B25A3E9}"/>
+    <hyperlink ref="F41" r:id="rId320" xr:uid="{A9BC8CB3-D1A6-4402-9DA0-D348B9001E18}"/>
+    <hyperlink ref="F43" r:id="rId321" xr:uid="{645DE28B-27A0-4C64-85C9-3BF4CBB29CC3}"/>
+    <hyperlink ref="F45" r:id="rId322" xr:uid="{47C3A391-B1E0-49F8-9033-099F5A7AB14C}"/>
+    <hyperlink ref="F47" r:id="rId323" xr:uid="{561AE5E4-3FDF-4EFD-AABA-EB8E7522C279}"/>
+    <hyperlink ref="F49" r:id="rId324" xr:uid="{E091F269-25E5-430E-BE47-6AE5961B869C}"/>
+    <hyperlink ref="F51" r:id="rId325" xr:uid="{998540AD-5A4E-4FEF-B463-D292CDB33F5D}"/>
+    <hyperlink ref="F53" r:id="rId326" xr:uid="{45F2E1A8-1CA6-4030-A6C4-6A6C774FA01C}"/>
+    <hyperlink ref="F55" r:id="rId327" xr:uid="{24DFACFC-8540-46BE-B9E3-D7F573C9A5B6}"/>
+    <hyperlink ref="F57" r:id="rId328" xr:uid="{495FDE35-8731-4B90-9B35-5D47AE19100D}"/>
+    <hyperlink ref="F59" r:id="rId329" xr:uid="{F6E6F27B-39BB-47A8-8553-47DC6C49DF0F}"/>
+    <hyperlink ref="F61" r:id="rId330" xr:uid="{04E823F6-3F9B-411C-A773-9A9B75A3189F}"/>
+    <hyperlink ref="F63" r:id="rId331" xr:uid="{7C7789C1-13DE-4A4D-81DD-6E125079EA6F}"/>
+    <hyperlink ref="F65" r:id="rId332" xr:uid="{200E3714-D9B9-400E-B88B-49D592F0EABC}"/>
+    <hyperlink ref="F67" r:id="rId333" xr:uid="{562964F3-9839-4A07-8220-325DAA6AB690}"/>
+    <hyperlink ref="F69" r:id="rId334" xr:uid="{CB1EE5E6-DEF3-4B6B-AF6B-093CC2F8DA1E}"/>
+    <hyperlink ref="F71" r:id="rId335" xr:uid="{43FE4E4A-E34F-4EE9-80B4-DAD439C999EF}"/>
+    <hyperlink ref="F73" r:id="rId336" xr:uid="{96E0A0CF-C6E7-4998-9C98-78F000347087}"/>
+    <hyperlink ref="F75" r:id="rId337" xr:uid="{8380EFEA-37CD-47CE-AA64-AB8CB23E9D34}"/>
+    <hyperlink ref="F77" r:id="rId338" xr:uid="{5AC55946-F58B-42BD-B379-DE90277F85EA}"/>
+    <hyperlink ref="F79" r:id="rId339" xr:uid="{11CA9D63-17A4-4229-8BF6-DFE570C2D666}"/>
+    <hyperlink ref="F81" r:id="rId340" xr:uid="{6B9FAC1B-2CFD-47B9-BF5B-8B59D0408FF5}"/>
+    <hyperlink ref="F83" r:id="rId341" xr:uid="{BABD620F-CBC2-40B0-8DC0-81FBFCFA5052}"/>
+    <hyperlink ref="F85" r:id="rId342" xr:uid="{EAC15311-21B1-4528-A51F-47BA8662DA6D}"/>
+    <hyperlink ref="F87" r:id="rId343" xr:uid="{205246EB-CDCC-4C9E-8881-2CF1E030F6A6}"/>
+    <hyperlink ref="F89" r:id="rId344" xr:uid="{F3651A3B-2569-4CA8-946B-74370AA7EC14}"/>
+    <hyperlink ref="F91" r:id="rId345" xr:uid="{3300EE45-74F8-4A3D-B545-3AF4123C9EB6}"/>
+    <hyperlink ref="F93" r:id="rId346" xr:uid="{F9F71005-4C2F-4E7F-AFF4-15EB86E4D26C}"/>
+    <hyperlink ref="F95" r:id="rId347" xr:uid="{A1C14316-85C2-4D99-86CF-720AFE66DB95}"/>
+    <hyperlink ref="F97" r:id="rId348" xr:uid="{17C51C7E-46EA-4627-973C-2E7E248A0038}"/>
+    <hyperlink ref="F99" r:id="rId349" xr:uid="{F4F0158B-1BE3-43C3-A72C-727A4006242E}"/>
+    <hyperlink ref="F101" r:id="rId350" xr:uid="{4825645A-6947-4CF4-A74C-1E62AAB997C7}"/>
+    <hyperlink ref="F103" r:id="rId351" xr:uid="{C056A494-8346-454D-930A-DC8098433258}"/>
+    <hyperlink ref="F105" r:id="rId352" xr:uid="{D25A0807-910D-4834-A8F6-50A52C08A95F}"/>
+    <hyperlink ref="F107" r:id="rId353" xr:uid="{02FF23B9-86C1-4E6E-AD60-E2C74E0D4DBF}"/>
+    <hyperlink ref="F109" r:id="rId354" xr:uid="{1D74FF2A-090D-4C3D-89D6-FB188142EABA}"/>
+    <hyperlink ref="F111" r:id="rId355" xr:uid="{FE640B15-F184-4927-9312-DBA931CE0B22}"/>
+    <hyperlink ref="F113" r:id="rId356" xr:uid="{CBE8F1F5-E8CE-43F6-8CAE-E72B8D5479DF}"/>
+    <hyperlink ref="F115" r:id="rId357" xr:uid="{73F012CF-3764-47CC-95EA-71FFF26F2167}"/>
+    <hyperlink ref="F117" r:id="rId358" xr:uid="{BE4CE5BC-E201-4246-8BC3-37B18455E3EB}"/>
+    <hyperlink ref="F119" r:id="rId359" xr:uid="{8BD6053E-B38A-456D-AA60-1CF4A01F3B91}"/>
+    <hyperlink ref="F121" r:id="rId360" xr:uid="{B2B2CAAC-05AF-4029-9FD8-D4741A3B4F86}"/>
+    <hyperlink ref="F123" r:id="rId361" xr:uid="{35CCFD13-D4E9-4589-851D-8DA8A7E61F76}"/>
+    <hyperlink ref="F125" r:id="rId362" xr:uid="{0A3F9D2B-7BC6-43A6-B9B3-0ECD6A1A5EE7}"/>
+    <hyperlink ref="F127" r:id="rId363" xr:uid="{D993E766-D10E-48D0-AD4C-0FE607B54373}"/>
+    <hyperlink ref="F129" r:id="rId364" xr:uid="{2FC4842D-35AB-4FB2-AF8E-13BCCF261066}"/>
+    <hyperlink ref="F131" r:id="rId365" xr:uid="{BE1EF420-D377-4725-A094-F57B97FA6E73}"/>
+    <hyperlink ref="F133" r:id="rId366" xr:uid="{0819F0E4-8079-48E5-BE39-94ABC61CDBC9}"/>
+    <hyperlink ref="F135" r:id="rId367" xr:uid="{43BC5F1A-8939-47BD-8608-E325F28ADFB7}"/>
+    <hyperlink ref="F137" r:id="rId368" xr:uid="{605D83BB-21E7-4FA9-900E-9D4AEE9434C6}"/>
+    <hyperlink ref="F139" r:id="rId369" xr:uid="{0B10C3D3-B47A-4A62-ACF9-16584E6D139F}"/>
+    <hyperlink ref="F141" r:id="rId370" xr:uid="{9C2981C5-8514-4C00-B929-CB35804B2A8A}"/>
+    <hyperlink ref="F143" r:id="rId371" xr:uid="{77474A7B-9CD5-4C31-8823-38896FCC2929}"/>
+    <hyperlink ref="F145" r:id="rId372" xr:uid="{D5207362-82E6-47B9-8D3C-9F663F96C3C0}"/>
+    <hyperlink ref="F147" r:id="rId373" xr:uid="{2C378BDA-552F-412B-94E7-9828391A9A74}"/>
+    <hyperlink ref="F149" r:id="rId374" xr:uid="{7AC772E7-AB00-4191-81F2-489D9B224258}"/>
+    <hyperlink ref="F151" r:id="rId375" xr:uid="{DEEEE8E3-8B0C-4225-A5AC-BE694014E298}"/>
+    <hyperlink ref="F153" r:id="rId376" xr:uid="{AC22FDB5-7976-427A-B67A-E3D6A0F47FC9}"/>
+    <hyperlink ref="F155" r:id="rId377" xr:uid="{D388FD5B-83F9-4743-BB9C-B5AFF066210A}"/>
+    <hyperlink ref="F157" r:id="rId378" xr:uid="{76A303FA-D12F-4B89-8223-C03C9F9C2D2D}"/>
+    <hyperlink ref="F159" r:id="rId379" xr:uid="{AC63F39C-F217-4B1D-8280-B14BAEB257D1}"/>
+    <hyperlink ref="F161" r:id="rId380" xr:uid="{8C4D3685-8B28-4355-8014-F9C4D3F48557}"/>
+    <hyperlink ref="F163" r:id="rId381" xr:uid="{F4E85AA5-09AD-4AB5-A948-08176829629D}"/>
+    <hyperlink ref="F165" r:id="rId382" xr:uid="{C51E84AE-C667-4181-A6C7-A0DF74B5C72C}"/>
+    <hyperlink ref="F167" r:id="rId383" xr:uid="{E2CB9E45-99CF-4FCC-90A9-3E8C3D95443B}"/>
+    <hyperlink ref="F169" r:id="rId384" xr:uid="{65BAA18D-4579-4A9C-B6ED-176F9FA3F57B}"/>
+    <hyperlink ref="F171" r:id="rId385" xr:uid="{D71A10C8-BED4-44B2-9C01-9C6AEE96E31C}"/>
+    <hyperlink ref="F173" r:id="rId386" xr:uid="{63E62007-C777-4EC3-9DB8-82629A775FA8}"/>
+    <hyperlink ref="F175" r:id="rId387" xr:uid="{FD724CB9-0518-43C4-9278-1F2576ABEC54}"/>
+    <hyperlink ref="F177" r:id="rId388" xr:uid="{4031A240-A72D-4A61-9AE1-065936E5923E}"/>
+    <hyperlink ref="F179" r:id="rId389" xr:uid="{F8B9CF05-7F3D-4093-94EC-9D49C8108CB5}"/>
+    <hyperlink ref="F181" r:id="rId390" xr:uid="{4577CD04-794F-4C6F-BBAF-8C7EB4695546}"/>
+    <hyperlink ref="F183" r:id="rId391" xr:uid="{302B5F15-018D-4CA1-B8CB-F9C7C0D7D2FC}"/>
+    <hyperlink ref="F185" r:id="rId392" xr:uid="{2E0B27C7-1E56-4399-A881-DC7D5AB776B9}"/>
+    <hyperlink ref="F187" r:id="rId393" xr:uid="{934F3426-1B74-4E3E-BFC2-10E1FB08FF79}"/>
+    <hyperlink ref="F189" r:id="rId394" xr:uid="{81F21D72-C439-4FE5-8725-341F266676A6}"/>
+    <hyperlink ref="F191" r:id="rId395" xr:uid="{0F6A090B-5B74-456A-B30C-6F028E0A5566}"/>
+    <hyperlink ref="F193" r:id="rId396" xr:uid="{70BF0B26-BF76-4BB7-80D2-1917D11CDD11}"/>
+    <hyperlink ref="F195" r:id="rId397" xr:uid="{5364C66B-42F1-4373-96D1-AD3AF050DF90}"/>
+    <hyperlink ref="F197" r:id="rId398" xr:uid="{9BC055B1-2A1D-486E-9C77-ADF1286453D6}"/>
+    <hyperlink ref="F199" r:id="rId399" xr:uid="{D5F1D3AC-CB80-41AF-A531-D3C910C782AC}"/>
+    <hyperlink ref="F201" r:id="rId400" xr:uid="{9F081151-EFC7-4A5C-8631-5BEFBEDC1B31}"/>
+    <hyperlink ref="F203" r:id="rId401" xr:uid="{0AF790C3-1BD4-4367-ADEF-93D7DAA016D1}"/>
+    <hyperlink ref="F205" r:id="rId402" xr:uid="{9662C131-71AC-4F6B-8C27-FAD9E0D63DCE}"/>
+    <hyperlink ref="F207" r:id="rId403" xr:uid="{785A62C8-D5B6-4E6F-9FAD-2B4DCD9C09FF}"/>
+    <hyperlink ref="F209" r:id="rId404" xr:uid="{20F78759-8CE9-475A-B7DB-31D4E26D0AFC}"/>
+    <hyperlink ref="F211" r:id="rId405" xr:uid="{7D5CCE6A-6398-42C1-8BBB-F20158EE874A}"/>
+    <hyperlink ref="F213" r:id="rId406" xr:uid="{A8351F12-B820-4112-A69F-C9E0F27CE147}"/>
+    <hyperlink ref="F215" r:id="rId407" xr:uid="{11D74030-BC26-4CD2-993E-15A57A008F86}"/>
+    <hyperlink ref="F217" r:id="rId408" xr:uid="{C893E978-40DB-40A9-AFDE-1421EF46B799}"/>
+    <hyperlink ref="F219" r:id="rId409" xr:uid="{EF7174C6-3AF3-490A-A128-DC4AD4AFB958}"/>
+    <hyperlink ref="F221" r:id="rId410" xr:uid="{615F046D-012A-4985-8A41-6872A3FDAA94}"/>
+    <hyperlink ref="F223" r:id="rId411" xr:uid="{7AAE7066-FD6D-4DC8-BC8B-37FDDE69FCEF}"/>
+    <hyperlink ref="F225" r:id="rId412" xr:uid="{7B407A9D-6861-4919-9BCB-C5E561E46028}"/>
+    <hyperlink ref="F227" r:id="rId413" xr:uid="{583BBEE9-CF3B-462A-937E-BB2AC114CD61}"/>
+    <hyperlink ref="F229" r:id="rId414" xr:uid="{148FE979-C97A-4C73-AF6B-6614650A2758}"/>
+    <hyperlink ref="F231" r:id="rId415" xr:uid="{A696F09E-0FE1-4235-8278-6351D0F3121D}"/>
+    <hyperlink ref="F233" r:id="rId416" xr:uid="{91947B98-6070-4B2B-9696-031A907D1866}"/>
+    <hyperlink ref="F235" r:id="rId417" xr:uid="{33960E7D-5332-4582-B453-D093F39DCC13}"/>
+    <hyperlink ref="F237" r:id="rId418" xr:uid="{E3AC275A-A080-47A8-A327-9236AADE9BE7}"/>
+    <hyperlink ref="F239" r:id="rId419" xr:uid="{34ACDA4D-FEA7-4B97-B958-4D98913630B1}"/>
+    <hyperlink ref="F241" r:id="rId420" xr:uid="{7EF92A2F-9566-4206-94BC-1FB93016277F}"/>
+    <hyperlink ref="F243" r:id="rId421" xr:uid="{9670FAD1-DB91-4842-BF3A-F72A77EFB706}"/>
+    <hyperlink ref="F245" r:id="rId422" xr:uid="{72B4FD9C-9C66-428F-BA35-0CA5F0FC0AC0}"/>
+    <hyperlink ref="F247" r:id="rId423" xr:uid="{FA44AA6B-34DE-4282-B9E0-5C264ED50E61}"/>
+    <hyperlink ref="F249" r:id="rId424" xr:uid="{40D039BF-13BD-47C8-BD27-0F9F5FB77468}"/>
+    <hyperlink ref="F251" r:id="rId425" xr:uid="{2E709743-0B5F-42AC-9727-197BA45F062C}"/>
+    <hyperlink ref="F253" r:id="rId426" xr:uid="{2AAC156D-F08D-46DE-9159-B0953D2DDDE3}"/>
+    <hyperlink ref="F255" r:id="rId427" xr:uid="{4E4DF0B9-E113-4592-9289-209C586BFC25}"/>
+    <hyperlink ref="F257" r:id="rId428" xr:uid="{16DE673D-B161-42A3-8DDF-CA9B9C7E184D}"/>
+    <hyperlink ref="F259" r:id="rId429" xr:uid="{000294F8-509D-4CC5-8548-B37A2FD64562}"/>
+    <hyperlink ref="F261" r:id="rId430" xr:uid="{187999AB-847A-4E38-880E-8F6884A85B0F}"/>
+    <hyperlink ref="F263" r:id="rId431" xr:uid="{75BF6EEC-D749-4F8C-A574-8D8079F3C6A8}"/>
+    <hyperlink ref="F265" r:id="rId432" xr:uid="{665528F7-5D14-4BC7-86A0-9154FC294BE7}"/>
+    <hyperlink ref="F267" r:id="rId433" xr:uid="{6C994C70-8B64-44AE-9E17-EC0F7A2FBCAF}"/>
+    <hyperlink ref="F269" r:id="rId434" xr:uid="{2FFA5EA4-C374-4C23-8DDD-B14C38898E9C}"/>
+    <hyperlink ref="F271" r:id="rId435" xr:uid="{FC1AF9D2-272B-4F9B-9E07-80B3D8F37E7E}"/>
+    <hyperlink ref="F273" r:id="rId436" xr:uid="{4B3C5FD2-3EB5-4B88-B7CD-C5CBE2981570}"/>
+    <hyperlink ref="F275" r:id="rId437" xr:uid="{77411D05-67A1-45E4-8F7D-20D41B4ED239}"/>
+    <hyperlink ref="F277" r:id="rId438" xr:uid="{B7B27105-9D02-46D6-8319-59587886A36D}"/>
+    <hyperlink ref="F279" r:id="rId439" xr:uid="{CBA3280D-1CAC-4366-BB6E-3AAA23EEF3BC}"/>
+    <hyperlink ref="F281" r:id="rId440" xr:uid="{31BB7390-FC37-4A06-ACEC-B68FFFA324E0}"/>
+    <hyperlink ref="F283" r:id="rId441" xr:uid="{BD4687C5-9056-4426-8089-9241F2DFA590}"/>
+    <hyperlink ref="F285" r:id="rId442" xr:uid="{C09468C0-657F-48ED-A7D1-E390E2FC4614}"/>
+    <hyperlink ref="F287" r:id="rId443" xr:uid="{1B4C4306-6384-4CBE-BBC5-96B573F482CB}"/>
+    <hyperlink ref="F289" r:id="rId444" xr:uid="{EC5F6250-B477-41C4-B03C-C4E9320BA42A}"/>
+    <hyperlink ref="F291" r:id="rId445" xr:uid="{62CC98FF-B063-4B95-AE4C-E6648ABD1E5A}"/>
+    <hyperlink ref="F293" r:id="rId446" xr:uid="{62EB1BA5-8DEE-4A38-8B44-42CB95F448C9}"/>
+    <hyperlink ref="F295" r:id="rId447" xr:uid="{F826F274-0002-42E5-BE35-1527DF78DEB2}"/>
+    <hyperlink ref="F297" r:id="rId448" xr:uid="{F42E2FF3-6F81-4565-A460-0B4ECC5E281D}"/>
+    <hyperlink ref="F299" r:id="rId449" xr:uid="{E73F17BA-36DD-4322-9622-DB93F5C96BB8}"/>
+    <hyperlink ref="F301" r:id="rId450" xr:uid="{EAE1C970-F6EB-463B-9460-96053573C677}"/>
+    <hyperlink ref="F303" r:id="rId451" xr:uid="{6894E99B-3237-4078-BC5F-3E66AC4EA78B}"/>
+    <hyperlink ref="F305" r:id="rId452" xr:uid="{10CE2D5F-C521-4E78-8B29-5246837B4CD3}"/>
+    <hyperlink ref="F307" r:id="rId453" xr:uid="{7764F656-D036-4D89-95BC-34E571ECEFE9}"/>
+    <hyperlink ref="F309" r:id="rId454" xr:uid="{12EB6E1E-50BF-4B42-AB47-0EC31E8391F6}"/>
+    <hyperlink ref="F311" r:id="rId455" xr:uid="{1B15FF3E-1A36-4FED-A60C-5D9BBC1B627C}"/>
+    <hyperlink ref="F313" r:id="rId456" xr:uid="{96EF98BF-3EDD-4BF3-9EBB-FD50086B9058}"/>
+    <hyperlink ref="F315" r:id="rId457" xr:uid="{A1D14A0F-314A-4600-9E89-A625D5697177}"/>
+    <hyperlink ref="F317" r:id="rId458" xr:uid="{DB7504A6-691E-4F75-81D4-79863D32677B}"/>
+    <hyperlink ref="F319" r:id="rId459" xr:uid="{03DC1D5E-43CB-48A0-88C5-634041023B32}"/>
+    <hyperlink ref="F321" r:id="rId460" xr:uid="{49FF3E10-F4CF-43AA-BB29-A3E715FE4298}"/>
+    <hyperlink ref="F323" r:id="rId461" xr:uid="{A0FC2F3F-65DD-478A-BDC8-417E52CBACF2}"/>
+    <hyperlink ref="F325" r:id="rId462" xr:uid="{9E8A8C43-D59D-4817-916D-8AC8A603044B}"/>
+    <hyperlink ref="F327" r:id="rId463" xr:uid="{7F68FB2D-8D05-4621-97BA-E1954AE7998E}"/>
+    <hyperlink ref="F329" r:id="rId464" xr:uid="{86617285-846F-42FC-97CE-4B2F5272F061}"/>
+    <hyperlink ref="F331" r:id="rId465" xr:uid="{C1243B93-158F-442B-B754-132787BFD9CD}"/>
+    <hyperlink ref="F333" r:id="rId466" xr:uid="{A44D861E-3486-4E7F-8CD7-F5FBFCB30B1D}"/>
+    <hyperlink ref="F335" r:id="rId467" xr:uid="{A75C2386-B5F0-4155-A767-FCCC836C54A4}"/>
+    <hyperlink ref="F337" r:id="rId468" xr:uid="{89470657-B923-4C32-8B13-C8C7F3AD95F9}"/>
+    <hyperlink ref="F339" r:id="rId469" xr:uid="{F427B7C4-C392-44EF-B4E4-B20001B37DA4}"/>
+    <hyperlink ref="F341" r:id="rId470" xr:uid="{E0669EF6-B1C5-4A54-8708-A2384C8BCEAF}"/>
+    <hyperlink ref="F343" r:id="rId471" xr:uid="{9C963745-D8FF-41A3-B61A-D37D36857FAF}"/>
+    <hyperlink ref="F345" r:id="rId472" xr:uid="{55C90DF1-974D-459C-8486-BB3B2AB6BBB5}"/>
+    <hyperlink ref="F347" r:id="rId473" xr:uid="{4AE82E09-7016-48DD-90AE-A45B04A735ED}"/>
+    <hyperlink ref="F349" r:id="rId474" xr:uid="{A71E6138-5180-49F0-B96E-269F79F37933}"/>
+    <hyperlink ref="F351" r:id="rId475" xr:uid="{306B8DF7-0FF0-4A5B-9FB5-E000CF91BBCC}"/>
+    <hyperlink ref="F353" r:id="rId476" xr:uid="{659E0D84-834D-430F-B3AE-31E152334FD5}"/>
+    <hyperlink ref="F355" r:id="rId477" xr:uid="{6BF04639-1A4C-4218-AB0E-06B3695D408B}"/>
+    <hyperlink ref="F357" r:id="rId478" xr:uid="{B16621DF-D416-4ABD-9160-3E18C8347C06}"/>
+    <hyperlink ref="F359" r:id="rId479" xr:uid="{ECB93D67-AE23-496E-9A93-071CD69AAA18}"/>
+    <hyperlink ref="F361" r:id="rId480" xr:uid="{7BA288D8-C659-4DF5-ADF7-662B3C3A1840}"/>
+    <hyperlink ref="F363" r:id="rId481" xr:uid="{3B1AF2EF-A5C4-4BBA-B5AE-E2345C59551C}"/>
+    <hyperlink ref="F365" r:id="rId482" xr:uid="{C9D39A61-7194-4FD8-A4E6-53EF1FC32C05}"/>
+    <hyperlink ref="F367" r:id="rId483" xr:uid="{D2ACD81E-9D61-43AE-A99B-699EC2176A77}"/>
+    <hyperlink ref="F369" r:id="rId484" xr:uid="{09D7E161-7FD3-4C5E-A35A-C55509DCC8AA}"/>
+    <hyperlink ref="F371" r:id="rId485" xr:uid="{5B38B9CA-5EBF-446C-ACD0-502571983760}"/>
+    <hyperlink ref="F373" r:id="rId486" xr:uid="{38FE2AAC-4AFC-446C-ABCD-AC943B49D772}"/>
+    <hyperlink ref="F375" r:id="rId487" xr:uid="{3AFF64B0-1DE9-48C9-957D-17763AA83EAE}"/>
+    <hyperlink ref="F377" r:id="rId488" xr:uid="{92618689-A15B-4B40-971A-BE34DB1E5134}"/>
+    <hyperlink ref="F379" r:id="rId489" xr:uid="{29A9F7B1-5FA8-42B7-B2B6-B43270EA9037}"/>
+    <hyperlink ref="F381" r:id="rId490" xr:uid="{A70221BE-0410-42F4-9D16-5AB4AD448DA4}"/>
+    <hyperlink ref="F383" r:id="rId491" xr:uid="{79CCC6C2-DB1C-4290-8DB3-7E4D0600E712}"/>
+    <hyperlink ref="F385" r:id="rId492" xr:uid="{D01EF455-6692-455F-9190-2A10F3C948DF}"/>
+    <hyperlink ref="F387" r:id="rId493" xr:uid="{D878DB0B-5200-429B-A4CF-841A66FD7363}"/>
+    <hyperlink ref="F389" r:id="rId494" xr:uid="{33A035A1-306D-4B55-ADB9-59574A3E08FD}"/>
+    <hyperlink ref="F391" r:id="rId495" xr:uid="{08A0B44B-2DF4-4175-A06C-0455B74C8EDA}"/>
+    <hyperlink ref="F393" r:id="rId496" xr:uid="{9AC97286-531E-4D6D-BB19-AF05511D47A8}"/>
+    <hyperlink ref="F395" r:id="rId497" xr:uid="{1612FE8A-B3C3-4B59-A880-648D78CDD1FC}"/>
+    <hyperlink ref="F397" r:id="rId498" xr:uid="{1EA535E3-7A89-45D7-9C1F-98B227C25F23}"/>
+    <hyperlink ref="F399" r:id="rId499" xr:uid="{46D8CA7B-C630-49C8-BEE5-36CBE9BB0B6F}"/>
+    <hyperlink ref="F401" r:id="rId500" xr:uid="{39052B33-30A4-4423-9FDD-6FE19856758B}"/>
+    <hyperlink ref="F403" r:id="rId501" xr:uid="{B2B5EE26-93CF-4F93-9077-65EA63463628}"/>
+    <hyperlink ref="F405" r:id="rId502" xr:uid="{BDE5BD36-EAE0-4A9D-915F-49863108E11C}"/>
+    <hyperlink ref="F407" r:id="rId503" xr:uid="{5DBF6D12-ACC6-454E-9C6F-6D84F447A288}"/>
+    <hyperlink ref="F409" r:id="rId504" xr:uid="{A9D916D3-3A54-418F-BBA2-A2440469EA4E}"/>
+    <hyperlink ref="F411" r:id="rId505" xr:uid="{55348E2B-2A3B-4598-B3D4-86B078EEB3EB}"/>
+    <hyperlink ref="F413" r:id="rId506" xr:uid="{506FFA45-BF00-4F9B-8B0E-3F9B24624E6D}"/>
+    <hyperlink ref="F415" r:id="rId507" xr:uid="{A0BC245B-5937-4C2C-9415-4DDB0FE10A80}"/>
+    <hyperlink ref="F417" r:id="rId508" xr:uid="{D38B2E6E-FD8A-48D0-A19C-4EFEA2977659}"/>
+    <hyperlink ref="F419" r:id="rId509" xr:uid="{3F241980-E53A-4E47-9555-616B6C0C7C5F}"/>
+    <hyperlink ref="F421" r:id="rId510" xr:uid="{7A3998A9-EB16-404F-B2FC-E1A701A93D3C}"/>
+    <hyperlink ref="F423" r:id="rId511" xr:uid="{975EEF12-5A30-41BA-865B-910173D8EB48}"/>
+    <hyperlink ref="F425" r:id="rId512" xr:uid="{A28419D6-5591-499E-BABE-197A54A63620}"/>
+    <hyperlink ref="F427" r:id="rId513" xr:uid="{07C1DC96-1B76-45CF-8600-F47187C2335A}"/>
+    <hyperlink ref="F429" r:id="rId514" xr:uid="{F2EAE649-44CA-4899-802B-0FD836026305}"/>
+    <hyperlink ref="F431" r:id="rId515" xr:uid="{A3028CA6-CEC8-4E12-97FF-47742160E618}"/>
+    <hyperlink ref="F433" r:id="rId516" xr:uid="{2FC11B2A-326A-42E4-AB20-D8D29D54547F}"/>
+    <hyperlink ref="F435" r:id="rId517" xr:uid="{F73C9DE8-CC83-44BB-822B-25B4A1A99AEA}"/>
+    <hyperlink ref="F437" r:id="rId518" xr:uid="{AC1E8201-779D-49DF-95AD-8F7A0F3FF5EF}"/>
+    <hyperlink ref="F439" r:id="rId519" xr:uid="{AD11D6CF-E5AE-4B75-8C8F-DC424A3D8269}"/>
+    <hyperlink ref="F441" r:id="rId520" xr:uid="{2F6C91AA-BC02-4031-8A42-C1181EB531EB}"/>
+    <hyperlink ref="F443" r:id="rId521" xr:uid="{C5A01AFC-DCF2-4D22-BFF0-3C2F475A9E8F}"/>
+    <hyperlink ref="F445" r:id="rId522" xr:uid="{B492D849-8BC5-4076-AD17-932FAB9BCF4E}"/>
+    <hyperlink ref="F447" r:id="rId523" xr:uid="{BB83B4C0-2E85-4D83-BD25-C8EFC89ADD81}"/>
+    <hyperlink ref="F449" r:id="rId524" xr:uid="{0C6BB7BC-DAC9-4C34-A128-620F5C218766}"/>
+    <hyperlink ref="F451" r:id="rId525" xr:uid="{4F63384C-850F-4301-A943-BE844AA6F728}"/>
+    <hyperlink ref="F453" r:id="rId526" xr:uid="{62482ADF-AF68-4E38-B085-B1B68E3CE5B3}"/>
+    <hyperlink ref="F455" r:id="rId527" xr:uid="{3365C264-852F-455E-8918-845D32750B51}"/>
+    <hyperlink ref="F457" r:id="rId528" xr:uid="{4D342178-4577-48F8-A8A3-2FE02B6F9E40}"/>
+    <hyperlink ref="F459" r:id="rId529" xr:uid="{2412B00F-C16E-47CC-8311-16E3F32806AB}"/>
+    <hyperlink ref="F461" r:id="rId530" xr:uid="{CC59A405-F50D-4D39-ACCB-F015FFC67B12}"/>
+    <hyperlink ref="F463" r:id="rId531" xr:uid="{6FD3475C-E8C1-46DC-9600-D4E23288B4AC}"/>
+    <hyperlink ref="F465" r:id="rId532" xr:uid="{8FA8ABBF-E141-4832-B311-C24ECB656E35}"/>
+    <hyperlink ref="F467" r:id="rId533" xr:uid="{9729D87A-FB18-4326-85D5-800921071D8C}"/>
+    <hyperlink ref="F469" r:id="rId534" xr:uid="{4DC6608F-6890-4A14-B3AD-E1065F6B9268}"/>
+    <hyperlink ref="F471" r:id="rId535" xr:uid="{60779DDB-C0F9-4057-8895-4E1B6324E973}"/>
+    <hyperlink ref="F473" r:id="rId536" xr:uid="{9D304563-76FC-4BFE-A51D-6F10C06BE13D}"/>
+    <hyperlink ref="F475" r:id="rId537" xr:uid="{F74513BC-BCDD-4688-A035-DFF5F7F37986}"/>
+    <hyperlink ref="F477" r:id="rId538" xr:uid="{84C6C64E-2126-4204-ABE0-0673BF05B9C9}"/>
+    <hyperlink ref="F479" r:id="rId539" xr:uid="{2B7E3CF8-BD86-4DB5-9D5E-78534457BEF5}"/>
+    <hyperlink ref="F481" r:id="rId540" xr:uid="{A01F1906-5EF2-4DC1-8253-C1C1F4997B74}"/>
+    <hyperlink ref="F483" r:id="rId541" xr:uid="{91FBCD54-FA8B-407E-B98E-035208B10F92}"/>
+    <hyperlink ref="F485" r:id="rId542" xr:uid="{06FB5075-7566-4F30-A154-8430A2ECD41C}"/>
+    <hyperlink ref="F487" r:id="rId543" xr:uid="{AA9A04B2-F0D9-4F46-8C49-21EC37D0E7DB}"/>
+    <hyperlink ref="F489" r:id="rId544" xr:uid="{A1A16D8D-F78B-418E-B086-270FA124EF2F}"/>
+    <hyperlink ref="F491" r:id="rId545" xr:uid="{A4ABA598-95DC-4E65-B08B-DAB496879D85}"/>
+    <hyperlink ref="F493" r:id="rId546" xr:uid="{CF9D99A5-5385-4839-B301-6D3AC92A3C88}"/>
+    <hyperlink ref="F495" r:id="rId547" xr:uid="{31D2D2F7-F972-44FC-8BBB-2DC6B4CC2B27}"/>
+    <hyperlink ref="F497" r:id="rId548" xr:uid="{CBAB69FC-0449-4E2E-86F6-93E3B7F68F99}"/>
+    <hyperlink ref="F499" r:id="rId549" xr:uid="{03CE055F-01FD-4502-B7AD-9CDBD3C27E02}"/>
+    <hyperlink ref="F501" r:id="rId550" xr:uid="{D1318F5C-1ACC-434B-9333-2AE363AEEAD4}"/>
+    <hyperlink ref="F503" r:id="rId551" xr:uid="{4B44E0C5-373B-442F-98CA-1DE588E77F63}"/>
+    <hyperlink ref="F505" r:id="rId552" xr:uid="{2076D110-6642-4CEC-B4AD-3118135F4DD4}"/>
+    <hyperlink ref="F507" r:id="rId553" xr:uid="{7609A6C8-9ECD-4A58-B90C-0C6F217057A3}"/>
+    <hyperlink ref="F509" r:id="rId554" xr:uid="{37206689-AB60-4AEC-8D5F-B80DF4635D91}"/>
+    <hyperlink ref="F511" r:id="rId555" xr:uid="{FB92BB5A-FDF6-4E6C-A75E-DD8573C3CD5F}"/>
+    <hyperlink ref="F513" r:id="rId556" xr:uid="{058D3B05-B29B-4592-8BA4-7183AB6E011D}"/>
+    <hyperlink ref="F515" r:id="rId557" xr:uid="{970341E1-CFF6-448A-B9C3-668D886C0B26}"/>
+    <hyperlink ref="F517" r:id="rId558" xr:uid="{34BE88CB-0BC1-4EFE-9A34-304F8CF0F76B}"/>
+    <hyperlink ref="F519" r:id="rId559" xr:uid="{5DE089E6-A859-4686-B976-49364BEFA70F}"/>
+    <hyperlink ref="F521" r:id="rId560" xr:uid="{8D88A4A6-D573-47F9-93DD-D81AFB1BC8B1}"/>
+    <hyperlink ref="F523" r:id="rId561" xr:uid="{BBB3D7B9-5C29-4515-9D6E-D19EF381A883}"/>
+    <hyperlink ref="F525" r:id="rId562" xr:uid="{545C5456-4A30-4236-A414-53FACB38A21A}"/>
+    <hyperlink ref="F527" r:id="rId563" xr:uid="{08F698C0-A2A7-4C27-B293-66EFFAD05AC6}"/>
+    <hyperlink ref="F529" r:id="rId564" xr:uid="{8653C51F-62FA-4C24-9D99-E6C2ED9F8B67}"/>
+    <hyperlink ref="F531" r:id="rId565" xr:uid="{16542A81-B81B-4C93-866C-FA0E3D286EA0}"/>
+    <hyperlink ref="F533" r:id="rId566" xr:uid="{3C5FE22C-CF1D-4747-B508-CB5C3DB44ACD}"/>
+    <hyperlink ref="F535" r:id="rId567" xr:uid="{F016C919-A1D1-43D6-BE46-D758F2564D2E}"/>
+    <hyperlink ref="F537" r:id="rId568" xr:uid="{E5409916-44E8-4C53-A6A8-F3B4B7794FDD}"/>
+    <hyperlink ref="F539" r:id="rId569" xr:uid="{188B3BD9-CDC8-450C-B581-A3CA737F8471}"/>
+    <hyperlink ref="F541" r:id="rId570" xr:uid="{89501514-537E-4E43-A01C-8F00B29B19D4}"/>
+    <hyperlink ref="F543" r:id="rId571" xr:uid="{B6E7C437-A206-47EB-B4D5-9E551F34EE04}"/>
+    <hyperlink ref="F545" r:id="rId572" xr:uid="{D7899B43-79BA-478F-97AF-FB83566F71A0}"/>
+    <hyperlink ref="F547" r:id="rId573" xr:uid="{A0954701-7A51-4F6D-BAA5-0B45C6DEF15B}"/>
+    <hyperlink ref="F549" r:id="rId574" xr:uid="{6365C5CB-39B0-4EF9-9647-54C65B96C057}"/>
+    <hyperlink ref="F551" r:id="rId575" xr:uid="{59796636-10C5-4787-A1B5-ABCFBF971D1C}"/>
+    <hyperlink ref="F553" r:id="rId576" xr:uid="{E6DB9CB4-A0C0-4856-93BE-54177D448A37}"/>
+    <hyperlink ref="F555" r:id="rId577" xr:uid="{5DA22286-E800-4AFE-8FD5-563DA470069A}"/>
+    <hyperlink ref="F557" r:id="rId578" xr:uid="{92AE0833-EFC6-400C-BC6D-90069F7DF9EC}"/>
+    <hyperlink ref="F559" r:id="rId579" xr:uid="{EC75AF4E-47D2-496D-BF7D-EADFEC0B2DFB}"/>
+    <hyperlink ref="F561" r:id="rId580" xr:uid="{BFF52A0C-8521-4705-AB18-55CD35F16067}"/>
+    <hyperlink ref="F563" r:id="rId581" xr:uid="{D8C60458-3740-47E8-A236-9927940E8CF2}"/>
+    <hyperlink ref="F565" r:id="rId582" xr:uid="{AFB59EF7-A055-4B63-AF69-C7E61E420612}"/>
+    <hyperlink ref="F567" r:id="rId583" xr:uid="{FB5365C7-3436-4BAE-83A6-A27C5773CE0E}"/>
+    <hyperlink ref="F569" r:id="rId584" xr:uid="{FA302990-51F4-48D2-B8DD-C630A0519B43}"/>
+    <hyperlink ref="F571" r:id="rId585" xr:uid="{F8FF07FB-6915-4C94-8BD1-B6F3D9278BCE}"/>
+    <hyperlink ref="F573" r:id="rId586" xr:uid="{C35AA1CD-D6C8-4AE4-9920-C6E68E27111E}"/>
+    <hyperlink ref="F575" r:id="rId587" xr:uid="{22F434D4-A40B-4884-8549-24BF28FFD840}"/>
+    <hyperlink ref="F577" r:id="rId588" xr:uid="{886710CC-E4F2-4B1D-9848-8A56A791178F}"/>
+    <hyperlink ref="F579" r:id="rId589" xr:uid="{31037764-6A69-4AA3-B9B2-38467488BF3C}"/>
+    <hyperlink ref="F581" r:id="rId590" xr:uid="{41218646-AFDE-4EA8-AB66-AE05F3DABD0B}"/>
+    <hyperlink ref="F583" r:id="rId591" xr:uid="{01AFAD46-1570-45DE-8835-D1350385D7F5}"/>
+    <hyperlink ref="F585" r:id="rId592" xr:uid="{9AF29216-B4E6-44CF-B981-5BE09EB90EA3}"/>
+    <hyperlink ref="F587" r:id="rId593" xr:uid="{14111AD5-F20B-4660-9B47-8C2B44EF205D}"/>
+    <hyperlink ref="F589" r:id="rId594" xr:uid="{F09489C9-4C3F-40F6-BAD6-E6A61A4B1558}"/>
+    <hyperlink ref="F591" r:id="rId595" xr:uid="{D3601876-761F-4E99-AE10-E0CE6379B900}"/>
+    <hyperlink ref="F593" r:id="rId596" xr:uid="{59E43822-A700-4A70-AB2E-195863DDE287}"/>
+    <hyperlink ref="F595" r:id="rId597" xr:uid="{4954EC5B-7C8D-483C-921A-428EFBA5B39E}"/>
+    <hyperlink ref="F597" r:id="rId598" xr:uid="{51006C6D-DE86-4917-9950-0E9E6197853B}"/>
+    <hyperlink ref="F599" r:id="rId599" xr:uid="{CEAB1C96-2B29-48FA-A3DC-D0370F09E4CA}"/>
+    <hyperlink ref="F601" r:id="rId600" xr:uid="{C62F5DC9-20E8-4E67-B945-558B789FEE14}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId601"/>
 </worksheet>
 </file>